--- a/data/ExperimentResultDetails_WithAccuracy.xlsx
+++ b/data/ExperimentResultDetails_WithAccuracy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="CountVector " sheetId="5" r:id="rId1"/>
@@ -210,14 +210,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -252,6 +252,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -550,6 +551,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -848,6 +850,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1171,6 +1174,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1494,6 +1498,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1817,6 +1822,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2140,6 +2146,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2463,6 +2470,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8245,8 +8253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:J16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8305,7 +8313,7 @@
       <c r="C2" s="1">
         <v>511</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -8326,7 +8334,10 @@
       <c r="J2" s="3">
         <v>9069</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3">
+        <f>SUM(I2:J2)</f>
+        <v>10198</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -8338,7 +8349,7 @@
       <c r="C3" s="1">
         <v>391</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
@@ -8357,7 +8368,10 @@
       <c r="J3" s="3">
         <v>585</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3">
+        <f>SUM(I3:J3)</f>
+        <v>806</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -8369,7 +8383,7 @@
       <c r="C4" s="1">
         <v>519</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -8388,7 +8402,10 @@
       <c r="J4" s="1">
         <v>1051</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="3">
+        <f>SUM(I4:J4)</f>
+        <v>1370</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -8400,7 +8417,7 @@
       <c r="C5" s="1">
         <v>334</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
@@ -8419,7 +8436,10 @@
       <c r="J5" s="1">
         <v>3075</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="3">
+        <f>SUM(I5:J5)</f>
+        <v>3654</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -8431,7 +8451,7 @@
       <c r="C6" s="1">
         <v>546</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -8450,7 +8470,10 @@
       <c r="J6" s="1">
         <v>3351</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="3">
+        <f>SUM(I6:J6)</f>
+        <v>3930</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -8462,7 +8485,7 @@
       <c r="C7" s="1">
         <v>2001</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
@@ -8481,7 +8504,10 @@
       <c r="J7" s="1">
         <v>186176</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="3">
+        <f>SUM(I7:J7)</f>
+        <v>195346</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -8528,7 +8554,7 @@
       <c r="C11" s="1">
         <v>511</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -8549,7 +8575,10 @@
       <c r="J11" s="3">
         <v>3475</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="3">
+        <f>SUM(I11:J11)</f>
+        <v>4604</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -8561,7 +8590,7 @@
       <c r="C12" s="1">
         <v>391</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -8580,7 +8609,10 @@
       <c r="J12" s="3">
         <v>820</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <f>SUM(I12:J12)</f>
+        <v>1041</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -8592,7 +8624,7 @@
       <c r="C13" s="1">
         <v>519</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
@@ -8611,7 +8643,10 @@
       <c r="J13" s="1">
         <v>1123</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="3">
+        <f>SUM(I13:J13)</f>
+        <v>1442</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -8623,7 +8658,7 @@
       <c r="C14" s="1">
         <v>334</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
@@ -8642,7 +8677,10 @@
       <c r="J14" s="1">
         <v>2045</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <f>SUM(I14:J14)</f>
+        <v>2624</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -8654,7 +8692,7 @@
       <c r="C15" s="1">
         <v>546</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
@@ -8673,7 +8711,10 @@
       <c r="J15" s="1">
         <v>2183</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <f>SUM(I15:J15)</f>
+        <v>2762</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -8685,7 +8726,7 @@
       <c r="C16" s="1">
         <v>2001</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
@@ -8704,7 +8745,10 @@
       <c r="J16" s="1">
         <v>16036</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1">
+        <f>SUM(I16:J16)</f>
+        <v>25206</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -8739,7 +8783,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8800,7 +8844,7 @@
       <c r="C2" s="1">
         <v>511</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -8821,7 +8865,10 @@
       <c r="J2" s="3">
         <v>8823</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3">
+        <f>SUM(I2:J2)</f>
+        <v>9952</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -8833,7 +8880,7 @@
       <c r="C3" s="1">
         <v>391</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
@@ -8852,7 +8899,10 @@
       <c r="J3" s="3">
         <v>582</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3">
+        <f>SUM(I3:J3)</f>
+        <v>803</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -8864,7 +8914,7 @@
       <c r="C4" s="1">
         <v>519</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -8883,7 +8933,10 @@
       <c r="J4" s="1">
         <v>1042</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="3">
+        <f>SUM(I4:J4)</f>
+        <v>1361</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -8895,7 +8948,7 @@
       <c r="C5" s="1">
         <v>334</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
@@ -8914,7 +8967,10 @@
       <c r="J5" s="1">
         <v>3038</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <f>SUM(I5:J5)</f>
+        <v>3617</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -8926,7 +8982,7 @@
       <c r="C6" s="1">
         <v>546</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -8945,7 +9001,10 @@
       <c r="J6" s="1">
         <v>3268</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <f>SUM(I6:J6)</f>
+        <v>3847</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -8957,7 +9016,7 @@
       <c r="C7" s="1">
         <v>2001</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
@@ -8976,7 +9035,10 @@
       <c r="J7" s="1">
         <v>183176</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <f>SUM(I7:J7)</f>
+        <v>192346</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -9023,7 +9085,7 @@
       <c r="C11" s="1">
         <v>511</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -9044,7 +9106,10 @@
       <c r="J11" s="3">
         <v>3488</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="3">
+        <f>SUM(I11:J11)</f>
+        <v>4617</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -9056,7 +9121,7 @@
       <c r="C12" s="1">
         <v>391</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -9075,7 +9140,10 @@
       <c r="J12" s="3">
         <v>841</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <f>SUM(I12:J12)</f>
+        <v>1062</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -9087,7 +9155,7 @@
       <c r="C13" s="1">
         <v>519</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
@@ -9106,7 +9174,10 @@
       <c r="J13" s="1">
         <v>1125</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="3">
+        <f>SUM(I13:J13)</f>
+        <v>1444</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -9118,7 +9189,7 @@
       <c r="C14" s="1">
         <v>334</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
@@ -9137,7 +9208,10 @@
       <c r="J14" s="1">
         <v>2113</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <f>SUM(I14:J14)</f>
+        <v>2692</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -9149,7 +9223,7 @@
       <c r="C15" s="1">
         <v>546</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
@@ -9168,7 +9242,10 @@
       <c r="J15" s="1">
         <v>2165</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <f>SUM(I15:J15)</f>
+        <v>2744</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -9180,11 +9257,11 @@
       <c r="C16" s="1">
         <v>2001</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>0.40200000000000002</v>
       </c>
       <c r="G16" s="2">
@@ -9199,7 +9276,10 @@
       <c r="J16" s="1">
         <v>16090</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1">
+        <f>SUM(I16:J16)</f>
+        <v>25260</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -9233,8 +9313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9285,10 +9365,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>24000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -9300,7 +9380,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -9321,8 +9401,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -9332,7 +9412,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="2">
         <v>0.63270000000000004</v>
       </c>
@@ -9344,8 +9424,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -9355,7 +9435,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="2">
         <v>0.90369999999999995</v>
       </c>
@@ -9367,8 +9447,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -9378,7 +9458,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="2">
         <v>0.73629999999999995</v>
       </c>
@@ -9390,8 +9470,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -9401,7 +9481,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="2">
         <v>0.60750000000000004</v>
       </c>
@@ -9413,8 +9493,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -9424,7 +9504,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="2">
         <v>0.66490000000000005</v>
       </c>
@@ -9465,10 +9545,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>24000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -9480,7 +9560,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -9494,8 +9574,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -9505,7 +9585,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2">
         <v>0.66100000000000003</v>
       </c>
@@ -9517,8 +9597,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -9528,7 +9608,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2">
         <v>0.91090000000000004</v>
       </c>
@@ -9540,8 +9620,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -9551,7 +9631,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="2">
         <v>0.75739999999999996</v>
       </c>
@@ -9563,8 +9643,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -9574,7 +9654,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="2">
         <v>0.68489999999999995</v>
       </c>
@@ -9586,8 +9666,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -9597,7 +9677,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="2">
         <v>0.67830000000000001</v>
       </c>
@@ -9638,10 +9718,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>24000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -9653,7 +9733,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2"/>
@@ -9661,8 +9741,8 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -9672,14 +9752,14 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -9689,14 +9769,14 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -9706,14 +9786,14 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -9723,14 +9803,14 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -9740,7 +9820,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -9775,10 +9855,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>24000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -9790,7 +9870,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2"/>
@@ -9798,8 +9878,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -9809,14 +9889,14 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -9826,14 +9906,14 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -9843,14 +9923,14 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -9860,14 +9940,14 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -9877,7 +9957,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -10068,70 +10148,70 @@
   </cols>
   <sheetData>
     <row r="4" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="U4" s="6" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="U4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
     </row>
     <row r="23" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="U23" s="6" t="s">
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="U23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
     </row>
     <row r="42" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="U42" s="6" t="s">
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="U42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/data/ExperimentResultDetails_WithAccuracy.xlsx
+++ b/data/ExperimentResultDetails_WithAccuracy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CountVector " sheetId="5" r:id="rId1"/>
@@ -252,7 +252,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -551,7 +550,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -850,7 +848,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1174,7 +1171,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1498,7 +1494,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1822,7 +1817,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2146,7 +2140,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2470,7 +2463,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8253,7 +8245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -8335,7 +8327,7 @@
         <v>9069</v>
       </c>
       <c r="K2" s="3">
-        <f>SUM(I2:J2)</f>
+        <f t="shared" ref="K2:K7" si="0">SUM(I2:J2)</f>
         <v>10198</v>
       </c>
     </row>
@@ -8369,7 +8361,7 @@
         <v>585</v>
       </c>
       <c r="K3" s="3">
-        <f>SUM(I3:J3)</f>
+        <f t="shared" si="0"/>
         <v>806</v>
       </c>
     </row>
@@ -8403,7 +8395,7 @@
         <v>1051</v>
       </c>
       <c r="K4" s="3">
-        <f>SUM(I4:J4)</f>
+        <f t="shared" si="0"/>
         <v>1370</v>
       </c>
     </row>
@@ -8437,7 +8429,7 @@
         <v>3075</v>
       </c>
       <c r="K5" s="3">
-        <f>SUM(I5:J5)</f>
+        <f t="shared" si="0"/>
         <v>3654</v>
       </c>
     </row>
@@ -8471,7 +8463,7 @@
         <v>3351</v>
       </c>
       <c r="K6" s="3">
-        <f>SUM(I6:J6)</f>
+        <f t="shared" si="0"/>
         <v>3930</v>
       </c>
     </row>
@@ -8505,7 +8497,7 @@
         <v>186176</v>
       </c>
       <c r="K7" s="3">
-        <f>SUM(I7:J7)</f>
+        <f t="shared" si="0"/>
         <v>195346</v>
       </c>
     </row>
@@ -8576,7 +8568,7 @@
         <v>3475</v>
       </c>
       <c r="K11" s="3">
-        <f>SUM(I11:J11)</f>
+        <f t="shared" ref="K11:K16" si="1">SUM(I11:J11)</f>
         <v>4604</v>
       </c>
     </row>
@@ -8610,7 +8602,7 @@
         <v>820</v>
       </c>
       <c r="K12" s="3">
-        <f>SUM(I12:J12)</f>
+        <f t="shared" si="1"/>
         <v>1041</v>
       </c>
     </row>
@@ -8644,7 +8636,7 @@
         <v>1123</v>
       </c>
       <c r="K13" s="3">
-        <f>SUM(I13:J13)</f>
+        <f t="shared" si="1"/>
         <v>1442</v>
       </c>
     </row>
@@ -8678,7 +8670,7 @@
         <v>2045</v>
       </c>
       <c r="K14" s="1">
-        <f>SUM(I14:J14)</f>
+        <f t="shared" si="1"/>
         <v>2624</v>
       </c>
     </row>
@@ -8712,7 +8704,7 @@
         <v>2183</v>
       </c>
       <c r="K15" s="1">
-        <f>SUM(I15:J15)</f>
+        <f t="shared" si="1"/>
         <v>2762</v>
       </c>
     </row>
@@ -8746,7 +8738,7 @@
         <v>16036</v>
       </c>
       <c r="K16" s="1">
-        <f>SUM(I16:J16)</f>
+        <f t="shared" si="1"/>
         <v>25206</v>
       </c>
     </row>
@@ -8783,7 +8775,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8866,7 +8858,7 @@
         <v>8823</v>
       </c>
       <c r="K2" s="3">
-        <f>SUM(I2:J2)</f>
+        <f t="shared" ref="K2:K7" si="0">SUM(I2:J2)</f>
         <v>9952</v>
       </c>
     </row>
@@ -8900,7 +8892,7 @@
         <v>582</v>
       </c>
       <c r="K3" s="3">
-        <f>SUM(I3:J3)</f>
+        <f t="shared" si="0"/>
         <v>803</v>
       </c>
     </row>
@@ -8934,7 +8926,7 @@
         <v>1042</v>
       </c>
       <c r="K4" s="3">
-        <f>SUM(I4:J4)</f>
+        <f t="shared" si="0"/>
         <v>1361</v>
       </c>
     </row>
@@ -8968,7 +8960,7 @@
         <v>3038</v>
       </c>
       <c r="K5" s="1">
-        <f>SUM(I5:J5)</f>
+        <f t="shared" si="0"/>
         <v>3617</v>
       </c>
     </row>
@@ -9002,7 +8994,7 @@
         <v>3268</v>
       </c>
       <c r="K6" s="1">
-        <f>SUM(I6:J6)</f>
+        <f t="shared" si="0"/>
         <v>3847</v>
       </c>
     </row>
@@ -9036,7 +9028,7 @@
         <v>183176</v>
       </c>
       <c r="K7" s="1">
-        <f>SUM(I7:J7)</f>
+        <f t="shared" si="0"/>
         <v>192346</v>
       </c>
     </row>
@@ -9107,7 +9099,7 @@
         <v>3488</v>
       </c>
       <c r="K11" s="3">
-        <f>SUM(I11:J11)</f>
+        <f t="shared" ref="K11:K16" si="1">SUM(I11:J11)</f>
         <v>4617</v>
       </c>
     </row>
@@ -9141,7 +9133,7 @@
         <v>841</v>
       </c>
       <c r="K12" s="3">
-        <f>SUM(I12:J12)</f>
+        <f t="shared" si="1"/>
         <v>1062</v>
       </c>
     </row>
@@ -9175,7 +9167,7 @@
         <v>1125</v>
       </c>
       <c r="K13" s="3">
-        <f>SUM(I13:J13)</f>
+        <f t="shared" si="1"/>
         <v>1444</v>
       </c>
     </row>
@@ -9209,7 +9201,7 @@
         <v>2113</v>
       </c>
       <c r="K14" s="1">
-        <f>SUM(I14:J14)</f>
+        <f t="shared" si="1"/>
         <v>2692</v>
       </c>
     </row>
@@ -9243,7 +9235,7 @@
         <v>2165</v>
       </c>
       <c r="K15" s="1">
-        <f>SUM(I15:J15)</f>
+        <f t="shared" si="1"/>
         <v>2744</v>
       </c>
     </row>
@@ -9277,7 +9269,7 @@
         <v>16090</v>
       </c>
       <c r="K16" s="1">
-        <f>SUM(I16:J16)</f>
+        <f t="shared" si="1"/>
         <v>25260</v>
       </c>
     </row>
@@ -9313,8 +9305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9736,9 +9728,15 @@
       <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="G22" s="2">
+        <v>0.78939999999999999</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.7853</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.7873</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
@@ -9753,9 +9751,15 @@
         <v>38</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="G23" s="2">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.49709999999999999</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.54449999999999998</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
@@ -9770,9 +9774,15 @@
         <v>53</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="G24" s="2">
+        <v>0.8024</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.7571</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.77690000000000003</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
@@ -9787,9 +9797,15 @@
         <v>31</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="G25" s="2">
+        <v>0.72440000000000004</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.68410000000000004</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.70079999999999998</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -9804,9 +9820,15 @@
         <v>58</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="G26" s="2">
+        <v>0.56640000000000001</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.41520000000000001</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.47899999999999998</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -9821,9 +9843,15 @@
         <v>347</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="G27" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.3921</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -9873,9 +9901,15 @@
       <c r="F32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="G32" s="2">
+        <v>0.78459999999999996</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.77710000000000001</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.78080000000000005</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
@@ -9890,9 +9924,15 @@
         <v>38</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="G33" s="2">
+        <v>0.59130000000000005</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.4743</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.52610000000000001</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
@@ -9907,9 +9947,15 @@
         <v>53</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="G34" s="2">
+        <v>0.79769999999999996</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.74129999999999996</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.76780000000000004</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
@@ -9924,9 +9970,15 @@
         <v>31</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="G35" s="2">
+        <v>0.7399</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.60370000000000001</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.66420000000000001</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -9941,9 +9993,15 @@
         <v>58</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="G36" s="2">
+        <v>0.55920000000000003</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.39810000000000001</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.46500000000000002</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
@@ -9958,9 +10016,15 @@
         <v>347</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="G37" s="2">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.38090000000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/data/ExperimentResultDetails_WithAccuracy.xlsx
+++ b/data/ExperimentResultDetails_WithAccuracy.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="33">
   <si>
     <t>Algorithm</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>Total tags</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>no of unique words in each category</t>
+  </si>
+  <si>
+    <t>experiment on existing result</t>
+  </si>
+  <si>
+    <t>Average words/doc size of each category</t>
   </si>
 </sst>
 </file>
@@ -8246,7 +8258,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8774,8 +8786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9306,7 +9318,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9317,7 +9329,7 @@
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -9506,6 +9518,24 @@
       <c r="I7" s="2">
         <v>0.29849999999999999</v>
       </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>15000</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -9535,6 +9565,9 @@
       <c r="I11" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="L11">
+        <v>20000</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -9563,6 +9596,9 @@
       </c>
       <c r="I12" s="2">
         <v>0.76729999999999998</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -9587,6 +9623,9 @@
       <c r="I13" s="2">
         <v>0.46200000000000002</v>
       </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -9609,6 +9648,9 @@
       </c>
       <c r="I14" s="2">
         <v>0.75739999999999996</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -10203,7 +10245,7 @@
   <dimension ref="G4:AB42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/ExperimentResultDetails_WithAccuracy.xlsx
+++ b/data/ExperimentResultDetails_WithAccuracy.xlsx
@@ -4,23 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CountVector " sheetId="5" r:id="rId1"/>
     <sheet name="TFIDFVector " sheetId="8" r:id="rId2"/>
-    <sheet name="Small Scale Result" sheetId="10" r:id="rId3"/>
-    <sheet name="No. of doc per category" sheetId="9" r:id="rId4"/>
-    <sheet name="TagsPerCategory" sheetId="6" r:id="rId5"/>
-    <sheet name="Top Frequecy Word Each Category" sheetId="4" r:id="rId6"/>
+    <sheet name="Small Scale Result-24000" sheetId="10" r:id="rId3"/>
+    <sheet name="Small Scale Result-20000" sheetId="11" r:id="rId4"/>
+    <sheet name="Small Scale Result-15000" sheetId="12" r:id="rId5"/>
+    <sheet name="Small Scale Result-10000" sheetId="13" r:id="rId6"/>
+    <sheet name="Small Scale Result-5000" sheetId="14" r:id="rId7"/>
+    <sheet name="Small Scale Result-3000" sheetId="15" r:id="rId8"/>
+    <sheet name="No. of doc per category" sheetId="9" r:id="rId9"/>
+    <sheet name="TagsPerCategory" sheetId="6" r:id="rId10"/>
+    <sheet name="Top Frequecy Word Each Category" sheetId="4" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="29">
   <si>
     <t>Algorithm</t>
   </si>
@@ -119,18 +124,6 @@
   </si>
   <si>
     <t>Total tags</t>
-  </si>
-  <si>
-    <t>Feedback</t>
-  </si>
-  <si>
-    <t>no of unique words in each category</t>
-  </si>
-  <si>
-    <t>experiment on existing result</t>
-  </si>
-  <si>
-    <t>Average words/doc size of each category</t>
   </si>
 </sst>
 </file>
@@ -264,6 +257,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -562,6 +556,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -860,6 +855,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1183,6 +1179,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1506,6 +1503,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1829,6 +1827,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2152,6 +2151,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2475,6 +2475,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8258,7 +8259,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8779,6 +8780,176 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G4:AB42"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="23" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="U23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+    </row>
+    <row r="42" spans="7:28" x14ac:dyDescent="0.25">
+      <c r="G42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="U42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="U4:AB4"/>
+    <mergeCell ref="U23:AB23"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="U42:AB42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9317,8 +9488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9518,24 +9689,6 @@
       <c r="I7" s="2">
         <v>0.29849999999999999</v>
       </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L9">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L10">
-        <v>15000</v>
-      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -9565,9 +9718,6 @@
       <c r="I11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L11">
-        <v>20000</v>
-      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -9596,9 +9746,6 @@
       </c>
       <c r="I12" s="2">
         <v>0.76729999999999998</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -9623,9 +9770,6 @@
       <c r="I13" s="2">
         <v>0.46200000000000002</v>
       </c>
-      <c r="L13" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -9648,9 +9792,6 @@
       </c>
       <c r="I14" s="2">
         <v>0.75739999999999996</v>
-      </c>
-      <c r="L14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -10090,6 +10231,3731 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1">
+        <f>SUM(D2:D7)</f>
+        <v>22172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6">
+        <v>20000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.79869999999999997</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.72430000000000005</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.75970000000000004</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1">
+        <f>SUM(E2:E7)</f>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E3" s="1">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2">
+        <v>0.63990000000000002</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.33789999999999998</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.44219999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E4" s="1">
+        <v>53</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2">
+        <v>0.89649999999999996</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.6593</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.75980000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E5" s="1">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.47289999999999999</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.57579999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E6" s="1">
+        <v>58</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2">
+        <v>0.64710000000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.2026</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.30859999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E7" s="1">
+        <v>347</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2">
+        <v>0.6694</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.2054</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.31430000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6">
+        <v>20000</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.7671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E13" s="1">
+        <v>38</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="2">
+        <v>0.64910000000000001</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.36659999999999998</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.46850000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E14" s="1">
+        <v>53</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="2">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.66559999999999997</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.76229999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E15" s="1">
+        <v>31</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="2">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.56189999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E16" s="1">
+        <v>58</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2">
+        <v>0.61409999999999998</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.2069</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.3095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E17" s="1">
+        <v>347</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="2">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.2084</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.31680000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6">
+        <v>20000</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.79269999999999996</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.78310000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E23" s="1">
+        <v>38</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="2">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.48159999999999997</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.51780000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E24" s="1">
+        <v>53</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="2">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.75929999999999997</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.80310000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E25" s="1">
+        <v>31</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="2">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.63670000000000004</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E26" s="1">
+        <v>58</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="2">
+        <v>0.54449999999999998</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.43390000000000001</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.4829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E27" s="1">
+        <v>347</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="2">
+        <v>0.50319999999999998</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.31380000000000002</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.38629999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6">
+        <v>20000</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.77700000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E33" s="1">
+        <v>38</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="2">
+        <v>0.58289999999999997</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.46489999999999998</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.51719999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E34" s="1">
+        <v>53</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="2">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.76139999999999997</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.76880000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E35" s="1">
+        <v>31</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="2">
+        <v>0.72809999999999997</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.63990000000000002</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.68020000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E36" s="1">
+        <v>58</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="2">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.3846</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.44719999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E37" s="1">
+        <v>347</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.37459999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="F32:F37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1">
+        <f>SUM(D2:D7)</f>
+        <v>22172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6">
+        <v>15000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.7863</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.73919999999999997</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1">
+        <f>SUM(E2:E7)</f>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E3" s="1">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2">
+        <v>0.59650000000000003</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.315</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.4123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E4" s="1">
+        <v>53</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.66559999999999997</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.75670000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E5" s="1">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.45750000000000002</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.56340000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E6" s="1">
+        <v>58</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.26729999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E7" s="1">
+        <v>347</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2">
+        <v>0.66849999999999998</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.27550000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6">
+        <v>15000</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.80649999999999999</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.74129999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E13" s="1">
+        <v>38</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="2">
+        <v>0.64139999999999997</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.32990000000000003</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.43569999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E14" s="1">
+        <v>53</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="2">
+        <v>0.88070000000000004</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.75919999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E15" s="1">
+        <v>31</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="2">
+        <v>0.73029999999999995</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.44869999999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.55579999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E16" s="1">
+        <v>58</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2">
+        <v>0.60119999999999996</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.2059</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.30669999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E17" s="1">
+        <v>347</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.2014</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.30730000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6">
+        <v>15000</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.78859999999999997</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.77890000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E23" s="1">
+        <v>38</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="2">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.53510000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E24" s="1">
+        <v>53</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="2">
+        <v>0.81289999999999996</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.72230000000000005</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.76470000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E25" s="1">
+        <v>31</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="2">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.61919999999999997</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.63790000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E26" s="1">
+        <v>58</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="2">
+        <v>0.51139999999999997</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.4088</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.45429999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E27" s="1">
+        <v>347</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="2">
+        <v>0.4647</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.30120000000000002</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.36530000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6">
+        <v>15000</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.75880000000000003</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.76729999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E33" s="1">
+        <v>38</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="2">
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.50249999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E34" s="1">
+        <v>53</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="2">
+        <v>0.80889999999999995</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.77629999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E35" s="1">
+        <v>31</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="2">
+        <v>0.68010000000000004</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.66120000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E36" s="1">
+        <v>58</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="2">
+        <v>0.51129999999999998</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.44109999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E37" s="1">
+        <v>347</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="2">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.28720000000000001</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.35449999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="F32:F37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1">
+        <f>SUM(D2:D7)</f>
+        <v>22172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.75329999999999997</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.63449999999999995</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.68879999999999997</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1">
+        <f>SUM(E2:E7)</f>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E3" s="1">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2">
+        <v>0.60089999999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.38469999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E4" s="1">
+        <v>53</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2">
+        <v>0.90449999999999997</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.76370000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E5" s="1">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.45750000000000002</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E6" s="1">
+        <v>58</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.1484</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.23430000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E7" s="1">
+        <v>347</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2">
+        <v>0.65269999999999995</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.76290000000000002</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.6492</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.70150000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E13" s="1">
+        <v>38</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="2">
+        <v>0.63859999999999995</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.23549999999999999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E14" s="1">
+        <v>53</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="2">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E15" s="1">
+        <v>31</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="2">
+        <v>0.74929999999999997</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.4204</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.53849999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E16" s="1">
+        <v>58</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2">
+        <v>0.56789999999999996</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.14949999999999999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.23669999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E17" s="1">
+        <v>347</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="2">
+        <v>0.65390000000000004</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.18790000000000001</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.77010000000000001</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.75260000000000005</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.76119999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E23" s="1">
+        <v>38</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="2">
+        <v>0.59319999999999995</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.48320000000000002</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.53149999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E24" s="1">
+        <v>53</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="2">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.74039999999999995</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.79590000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E25" s="1">
+        <v>31</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="2">
+        <v>0.68620000000000003</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.62060000000000004</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.65129999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E26" s="1">
+        <v>58</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="2">
+        <v>0.50370000000000004</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.3831</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.43509999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E27" s="1">
+        <v>347</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="2">
+        <v>0.46110000000000001</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.3211</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.37140000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.76770000000000005</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.75180000000000002</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.75970000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E33" s="1">
+        <v>38</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="2">
+        <v>0.58240000000000003</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.44869999999999999</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.50680000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E34" s="1">
+        <v>53</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="2">
+        <v>0.80710000000000004</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.7298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E35" s="1">
+        <v>31</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="2">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.6069</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E36" s="1">
+        <v>58</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="2">
+        <v>0.44330000000000003</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E37" s="1">
+        <v>347</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="2">
+        <v>0.44169999999999998</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.3528</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="F32:F37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1">
+        <f>SUM(D2:D7)</f>
+        <v>22172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.77859999999999996</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.59160000000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.67230000000000001</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1">
+        <f>SUM(E2:E7)</f>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E3" s="1">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.29659999999999997</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.40060000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E4" s="1">
+        <v>53</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2">
+        <v>0.87129999999999996</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.65449999999999997</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.74750000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E5" s="1">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2">
+        <v>0.67339000000000004</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.5393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E6" s="1">
+        <v>58</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2">
+        <v>0.55420000000000003</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.17660000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E7" s="1">
+        <v>347</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2">
+        <v>0.6401</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.28039999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.59330000000000005</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.66990000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E13" s="1">
+        <v>38</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="2">
+        <v>0.62829999999999997</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.2944</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.40089999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E14" s="1">
+        <v>53</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="2">
+        <v>0.88570000000000004</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.63859999999999995</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.74209999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E15" s="1">
+        <v>31</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="2">
+        <v>0.67269999999999996</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.41549999999999998</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.51370000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E16" s="1">
+        <v>58</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2">
+        <v>0.59040000000000004</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.1343</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.21879999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E17" s="1">
+        <v>347</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="2">
+        <v>0.67049999999999998</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.75890000000000002</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.72150000000000003</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.73960000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E23" s="1">
+        <v>38</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="2">
+        <v>0.59250000000000003</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.53569999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E24" s="1">
+        <v>53</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="2">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.73560000000000003</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.78539999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E25" s="1">
+        <v>31</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="2">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.60780000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E26" s="1">
+        <v>58</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="2">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.32629999999999998</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.37740000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E27" s="1">
+        <v>347</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="2">
+        <v>0.43380000000000002</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.26819999999999999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.33119999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.74009999999999998</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.75529999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E33" s="1">
+        <v>38</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="2">
+        <v>0.58050000000000002</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.47010000000000002</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.51929999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E34" s="1">
+        <v>53</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="2">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.73419999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E35" s="1">
+        <v>31</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="2">
+        <v>0.62970000000000004</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.54559999999999997</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.58430000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E36" s="1">
+        <v>58</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="2">
+        <v>0.4284</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.35849999999999999</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.39019999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E37" s="1">
+        <v>347</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="2">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.2757</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.33279999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="F32:F37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1">
+        <f>SUM(D2:D7)</f>
+        <v>22172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.57550000000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.66559999999999997</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1">
+        <f>SUM(E2:E7)</f>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E3" s="1">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2">
+        <v>0.61570000000000003</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.39929999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E4" s="1">
+        <v>53</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.6371</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.73829999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E5" s="1">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2">
+        <v>0.64159999999999995</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.35160000000000002</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.45429999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E6" s="1">
+        <v>58</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2">
+        <v>0.4788</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.1105</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.17949999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E7" s="1">
+        <v>347</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2">
+        <v>0.66810000000000003</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.15010000000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.2452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.58889999999999998</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.66490000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E13" s="1">
+        <v>38</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="2">
+        <v>0.59589999999999999</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.3024</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.4012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E14" s="1">
+        <v>53</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="2">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.65449999999999997</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.74680000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E15" s="1">
+        <v>31</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="2">
+        <v>0.62439999999999996</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.46229999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E16" s="1">
+        <v>58</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2">
+        <v>0.56369999999999998</v>
+      </c>
+      <c r="H16" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.15670000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E17" s="1">
+        <v>347</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="2">
+        <v>0.65139999999999998</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.1701</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.2697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3000</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.73839999999999995</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.66690000000000005</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.70079999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E23" s="1">
+        <v>38</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="2">
+        <v>0.55220000000000002</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.45429999999999998</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.49830000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E24" s="1">
+        <v>53</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="2">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.69689999999999996</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.74439999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E25" s="1">
+        <v>31</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="2">
+        <v>0.6119</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.52859999999999996</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.56710000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E26" s="1">
+        <v>58</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="2">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.30180000000000001</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.3427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E27" s="1">
+        <v>347</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="2">
+        <v>0.4385</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.26119999999999999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.32729999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4915</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.74139999999999995</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.66779999999999995</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.70250000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2345</v>
+      </c>
+      <c r="E33" s="1">
+        <v>38</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="2">
+        <v>0.5595</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.51780000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2041</v>
+      </c>
+      <c r="E34" s="1">
+        <v>53</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="2">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.7339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4036</v>
+      </c>
+      <c r="E35" s="1">
+        <v>31</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="2">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.53790000000000004</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.56850000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4270</v>
+      </c>
+      <c r="E36" s="1">
+        <v>58</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="2">
+        <v>0.38529999999999998</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.32540000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4565</v>
+      </c>
+      <c r="E37" s="1">
+        <v>347</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="2">
+        <v>0.432</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.32769999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="F32:F37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10162,174 +14028,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G4:AB42"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="U4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-    </row>
-    <row r="23" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="U23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-    </row>
-    <row r="42" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="U42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="U4:AB4"/>
-    <mergeCell ref="U23:AB23"/>
-    <mergeCell ref="G42:N42"/>
-    <mergeCell ref="U42:AB42"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/data/ExperimentResultDetails_WithAccuracy.xlsx
+++ b/data/ExperimentResultDetails_WithAccuracy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="CountVector " sheetId="5" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="No. of doc per category" sheetId="9" r:id="rId9"/>
     <sheet name="TagsPerCategory" sheetId="6" r:id="rId10"/>
     <sheet name="Top Frequecy Word Each Category" sheetId="4" r:id="rId11"/>
+    <sheet name="Crime Dataset Result" sheetId="17" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="49">
   <si>
     <t>Algorithm</t>
   </si>
@@ -111,9 +112,6 @@
     <t>Time to Fit the model</t>
   </si>
   <si>
-    <t>NN (epoch 200)</t>
-  </si>
-  <si>
     <t>CountVector</t>
   </si>
   <si>
@@ -125,12 +123,75 @@
   <si>
     <t>Total tags</t>
   </si>
+  <si>
+    <t>Total Sentence</t>
+  </si>
+  <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>No. of Sentences</t>
+  </si>
+  <si>
+    <t>F1 Scroe</t>
+  </si>
+  <si>
+    <t>Class Name</t>
+  </si>
+  <si>
+    <t>Victim</t>
+  </si>
+  <si>
+    <t>Suspect</t>
+  </si>
+  <si>
+    <t>CrimeType</t>
+  </si>
+  <si>
+    <t>CrimePlace</t>
+  </si>
+  <si>
+    <t>CrimeTime</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Police Station</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Taking the lowest value of precision</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +222,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -181,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -204,12 +272,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -221,13 +327,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8259,14 +8382,15 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -8318,7 +8442,7 @@
       <c r="C2" s="1">
         <v>511</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -8354,7 +8478,7 @@
       <c r="C3" s="1">
         <v>391</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
@@ -8388,7 +8512,7 @@
       <c r="C4" s="1">
         <v>519</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -8422,7 +8546,7 @@
       <c r="C5" s="1">
         <v>334</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
@@ -8456,7 +8580,7 @@
       <c r="C6" s="1">
         <v>546</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -8490,7 +8614,7 @@
       <c r="C7" s="1">
         <v>2001</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
@@ -8559,8 +8683,8 @@
       <c r="C11" s="1">
         <v>511</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>2</v>
@@ -8595,7 +8719,7 @@
       <c r="C12" s="1">
         <v>391</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -8629,7 +8753,7 @@
       <c r="C13" s="1">
         <v>519</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
@@ -8663,7 +8787,7 @@
       <c r="C14" s="1">
         <v>334</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
@@ -8697,7 +8821,7 @@
       <c r="C15" s="1">
         <v>546</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
@@ -8731,7 +8855,7 @@
       <c r="C16" s="1">
         <v>2001</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
@@ -8873,70 +8997,70 @@
   </cols>
   <sheetData>
     <row r="4" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="U4" s="7" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="U4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
     </row>
     <row r="23" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="U23" s="7" t="s">
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="U23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
     </row>
     <row r="42" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="U42" s="7" t="s">
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="U42" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8953,12 +9077,998 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1">
+        <v>9795</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="9">
+        <v>9795</v>
+      </c>
+      <c r="E2" s="9">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.6129</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.33539999999999998</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.44440000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="6">
+        <v>6000</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="2">
+        <v>0.6109</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.35510000000000003</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.4491</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.38179999999999997</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="6">
+        <v>9000</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="2">
+        <v>0.61050000000000004</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.3538</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.29909999999999998</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.40720000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.42230000000000001</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.5333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.36909999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.70269999999999999</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.75360000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9">
+        <v>9795</v>
+      </c>
+      <c r="E8" s="9">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.6089</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.45910000000000001</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.69910000000000005</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.71819999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6">
+        <v>6000</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="2">
+        <v>0.60909999999999997</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.35749999999999998</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.4506</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.68959999999999999</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.78710000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="6">
+        <v>9000</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="2">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.36980000000000002</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0.46679999999999999</v>
+      </c>
+      <c r="R10" s="2">
+        <f>SUM(R2:R9)/8</f>
+        <v>0.65834999999999999</v>
+      </c>
+      <c r="S10" s="2">
+        <f>SUM(S2:S9)/8</f>
+        <v>0.52098750000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="9">
+        <v>9795</v>
+      </c>
+      <c r="E14" s="9">
+        <v>8</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.60409999999999997</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.36830000000000002</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.45729999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="6">
+        <v>6000</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="2">
+        <v>0.60160000000000002</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.36380000000000001</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="6">
+        <v>9000</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="2">
+        <v>0.61119999999999997</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.45590000000000003</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>347</v>
+      </c>
+      <c r="R16" s="1">
+        <v>291</v>
+      </c>
+      <c r="S16" s="1">
+        <v>269</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2106</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0.54379999999999995</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0.56330000000000002</v>
+      </c>
+      <c r="W16" s="15">
+        <f>(2*U16*V16 )/(U16+V16)</f>
+        <v>0.55337826754584041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>65</v>
+      </c>
+      <c r="R17" s="1">
+        <v>151</v>
+      </c>
+      <c r="S17" s="1">
+        <v>161</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2636</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0.3009</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="W17" s="15">
+        <f t="shared" ref="W17:W23" si="0">(2*U17*V17 )/(U17+V17)</f>
+        <v>0.2940997111299915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>177</v>
+      </c>
+      <c r="R18" s="1">
+        <v>164</v>
+      </c>
+      <c r="S18" s="1">
+        <v>190</v>
+      </c>
+      <c r="T18" s="1">
+        <v>2482</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0.48220000000000002</v>
+      </c>
+      <c r="W18" s="15">
+        <f t="shared" si="0"/>
+        <v>0.4999236915701159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>222</v>
+      </c>
+      <c r="R19" s="1">
+        <v>119</v>
+      </c>
+      <c r="S19" s="1">
+        <v>211</v>
+      </c>
+      <c r="T19" s="1">
+        <v>2461</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="W19" s="15">
+        <f t="shared" si="0"/>
+        <v>0.57363186388244403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3000</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="9">
+        <v>9795</v>
+      </c>
+      <c r="E20" s="9">
+        <v>8</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.37690000000000001</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.46089999999999998</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>119</v>
+      </c>
+      <c r="R20" s="1">
+        <v>91</v>
+      </c>
+      <c r="S20" s="1">
+        <v>165</v>
+      </c>
+      <c r="T20" s="1">
+        <v>2638</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="W20" s="15">
+        <f t="shared" si="0"/>
+        <v>0.48178411281322914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="6">
+        <v>6000</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="2">
+        <v>0.59609999999999996</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.37009999999999998</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.45629999999999998</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>102</v>
+      </c>
+      <c r="R21" s="1">
+        <v>9</v>
+      </c>
+      <c r="S21" s="1">
+        <v>62</v>
+      </c>
+      <c r="T21" s="1">
+        <v>2840</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0.62190000000000001</v>
+      </c>
+      <c r="W21" s="15">
+        <f t="shared" si="0"/>
+        <v>0.74177558411214961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="6">
+        <v>9000</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="2">
+        <v>0.59350000000000003</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.44379999999999997</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>92</v>
+      </c>
+      <c r="R22" s="1">
+        <v>21</v>
+      </c>
+      <c r="S22" s="1">
+        <v>71</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2829</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="W22" s="15">
+        <f t="shared" si="0"/>
+        <v>0.66663480594849478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1325</v>
+      </c>
+      <c r="R23" s="1">
+        <v>389</v>
+      </c>
+      <c r="S23" s="1">
+        <v>414</v>
+      </c>
+      <c r="T23" s="1">
+        <v>885</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="W23" s="15">
+        <f t="shared" si="0"/>
+        <v>0.76740986383477749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P24" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="1">
+        <f>SUM(Q16:Q23)</f>
+        <v>2449</v>
+      </c>
+      <c r="R24" s="1">
+        <f>SUM(R16:R23)</f>
+        <v>1235</v>
+      </c>
+      <c r="S24" s="1">
+        <f>SUM(S16:S23)</f>
+        <v>1543</v>
+      </c>
+      <c r="T24" s="1">
+        <f>SUM(T16:T23)</f>
+        <v>18877</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0.66479999999999995</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0.6381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0.33539999999999998</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0.56330000000000002</v>
+      </c>
+      <c r="S31" s="15">
+        <f xml:space="preserve"> (2*Q31*R31)/(Q31+R31)</f>
+        <v>0.42045358851674636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="S32" s="15">
+        <f t="shared" ref="S32:S39" si="1" xml:space="preserve"> (2*Q32*R32)/(Q32+R32)</f>
+        <v>0.14529480249480251</v>
+      </c>
+    </row>
+    <row r="33" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0.29909999999999998</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0.48220000000000002</v>
+      </c>
+      <c r="S33" s="15">
+        <f t="shared" si="1"/>
+        <v>0.36919498272110579</v>
+      </c>
+    </row>
+    <row r="34" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.42230000000000001</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="S34" s="15">
+        <f t="shared" si="1"/>
+        <v>0.46312986096256686</v>
+      </c>
+    </row>
+    <row r="35" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0.36909999999999998</v>
+      </c>
+      <c r="S35" s="15">
+        <f t="shared" si="1"/>
+        <v>0.30639394611727416</v>
+      </c>
+    </row>
+    <row r="36" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0.70269999999999999</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0.62190000000000001</v>
+      </c>
+      <c r="S36" s="15">
+        <f t="shared" si="1"/>
+        <v>0.65983561829986415</v>
+      </c>
+    </row>
+    <row r="37" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0.69910000000000005</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="S37" s="15">
+        <f t="shared" si="1"/>
+        <v>0.62456990898298381</v>
+      </c>
+    </row>
+    <row r="38" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="S38" s="15">
+        <f t="shared" si="1"/>
+        <v>0.76740986383477749</v>
+      </c>
+    </row>
+    <row r="39" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q39" s="2">
+        <f>SUM(Q31:Q38)/8</f>
+        <v>0.4488375</v>
+      </c>
+      <c r="R39" s="2">
+        <f>SUM(R31:R38)/8</f>
+        <v>0.5203875</v>
+      </c>
+      <c r="S39" s="15">
+        <f t="shared" si="1"/>
+        <v>0.481971522672754</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9019,7 +10129,7 @@
       <c r="C2" s="1">
         <v>511</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -9055,7 +10165,7 @@
       <c r="C3" s="1">
         <v>391</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
@@ -9089,7 +10199,7 @@
       <c r="C4" s="1">
         <v>519</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -9123,7 +10233,7 @@
       <c r="C5" s="1">
         <v>334</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
@@ -9157,7 +10267,7 @@
       <c r="C6" s="1">
         <v>546</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -9191,7 +10301,7 @@
       <c r="C7" s="1">
         <v>2001</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
@@ -9260,7 +10370,7 @@
       <c r="C11" s="1">
         <v>511</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -9296,7 +10406,7 @@
       <c r="C12" s="1">
         <v>391</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -9330,7 +10440,7 @@
       <c r="C13" s="1">
         <v>519</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
@@ -9364,7 +10474,7 @@
       <c r="C14" s="1">
         <v>334</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
@@ -9398,7 +10508,7 @@
       <c r="C15" s="1">
         <v>546</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
@@ -9432,7 +10542,7 @@
       <c r="C16" s="1">
         <v>2001</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
@@ -9505,7 +10615,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -9540,10 +10650,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7">
         <v>24000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -9555,7 +10665,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -9568,7 +10678,7 @@
         <v>0.75580000000000003</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1">
         <f>SUM(E2:E7)</f>
@@ -9576,8 +10686,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -9587,7 +10697,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2">
         <v>0.63270000000000004</v>
       </c>
@@ -9599,8 +10709,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -9610,7 +10720,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="2">
         <v>0.90369999999999995</v>
       </c>
@@ -9622,8 +10732,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -9633,7 +10743,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2">
         <v>0.73629999999999995</v>
       </c>
@@ -9645,8 +10755,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -9656,7 +10766,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2">
         <v>0.60750000000000004</v>
       </c>
@@ -9668,8 +10778,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -9679,7 +10789,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2">
         <v>0.66490000000000005</v>
       </c>
@@ -9692,7 +10802,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>5</v>
@@ -9720,10 +10830,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7">
         <v>24000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -9735,7 +10845,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -9749,8 +10859,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -9760,7 +10870,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2">
         <v>0.66100000000000003</v>
       </c>
@@ -9772,8 +10882,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -9783,7 +10893,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2">
         <v>0.91090000000000004</v>
       </c>
@@ -9795,8 +10905,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -9806,7 +10916,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2">
         <v>0.75739999999999996</v>
       </c>
@@ -9818,8 +10928,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -9829,7 +10939,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="2">
         <v>0.68489999999999995</v>
       </c>
@@ -9841,8 +10951,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -9852,7 +10962,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="2">
         <v>0.67830000000000001</v>
       </c>
@@ -9865,7 +10975,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
@@ -9893,10 +11003,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7">
         <v>24000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -9908,7 +11018,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -9922,8 +11032,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -9933,7 +11043,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="2">
         <v>0.60199999999999998</v>
       </c>
@@ -9945,8 +11055,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -9956,7 +11066,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="2">
         <v>0.8024</v>
       </c>
@@ -9968,8 +11078,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -9979,7 +11089,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="2">
         <v>0.72440000000000004</v>
       </c>
@@ -9991,8 +11101,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -10002,7 +11112,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="2">
         <v>0.56640000000000001</v>
       </c>
@@ -10014,8 +11124,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -10025,7 +11135,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="2">
         <v>0.51</v>
       </c>
@@ -10038,7 +11148,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>5</v>
@@ -10066,10 +11176,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="A32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7">
         <v>24000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -10081,7 +11191,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -10095,8 +11205,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -10106,7 +11216,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="2">
         <v>0.59130000000000005</v>
       </c>
@@ -10118,8 +11228,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -10129,7 +11239,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="2">
         <v>0.79769999999999996</v>
       </c>
@@ -10141,8 +11251,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -10152,7 +11262,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="2">
         <v>0.7399</v>
       </c>
@@ -10164,8 +11274,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -10175,7 +11285,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="2">
         <v>0.55920000000000003</v>
       </c>
@@ -10187,8 +11297,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -10198,7 +11308,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="2">
         <v>0.49370000000000003</v>
       </c>
@@ -10234,7 +11344,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10250,7 +11360,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -10285,10 +11395,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7">
         <v>20000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -10300,7 +11410,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -10313,7 +11423,7 @@
         <v>0.75970000000000004</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1">
         <f>SUM(E2:E7)</f>
@@ -10321,8 +11431,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -10332,7 +11442,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2">
         <v>0.63990000000000002</v>
       </c>
@@ -10344,8 +11454,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -10355,7 +11465,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="2">
         <v>0.89649999999999996</v>
       </c>
@@ -10367,8 +11477,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -10378,7 +11488,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2">
         <v>0.75580000000000003</v>
       </c>
@@ -10390,8 +11500,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -10401,7 +11511,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2">
         <v>0.64710000000000001</v>
       </c>
@@ -10413,8 +11523,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -10424,7 +11534,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2">
         <v>0.6694</v>
       </c>
@@ -10437,7 +11547,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>5</v>
@@ -10465,10 +11575,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7">
         <v>20000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -10480,7 +11590,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -10494,8 +11604,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -10505,7 +11615,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2">
         <v>0.64910000000000001</v>
       </c>
@@ -10517,8 +11627,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -10528,7 +11638,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2">
         <v>0.89170000000000005</v>
       </c>
@@ -10540,8 +11650,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -10551,7 +11661,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2">
         <v>0.74299999999999999</v>
       </c>
@@ -10563,8 +11673,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -10574,7 +11684,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="2">
         <v>0.61409999999999998</v>
       </c>
@@ -10586,8 +11696,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -10597,7 +11707,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="2">
         <v>0.66080000000000005</v>
       </c>
@@ -10610,7 +11720,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
@@ -10638,10 +11748,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7">
         <v>20000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -10653,7 +11763,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -10667,8 +11777,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -10678,7 +11788,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="2">
         <v>0.56010000000000004</v>
       </c>
@@ -10690,8 +11800,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -10701,7 +11811,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="2">
         <v>0.85360000000000003</v>
       </c>
@@ -10713,8 +11823,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -10724,7 +11834,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="2">
         <v>0.71830000000000005</v>
       </c>
@@ -10736,8 +11846,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -10747,7 +11857,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="2">
         <v>0.54449999999999998</v>
       </c>
@@ -10759,8 +11869,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -10770,7 +11880,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="2">
         <v>0.50319999999999998</v>
       </c>
@@ -10783,7 +11893,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>5</v>
@@ -10811,10 +11921,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="A32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7">
         <v>20000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -10826,7 +11936,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -10840,8 +11950,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -10851,7 +11961,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="2">
         <v>0.58289999999999997</v>
       </c>
@@ -10863,8 +11973,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -10874,7 +11984,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="2">
         <v>0.78259999999999996</v>
       </c>
@@ -10886,8 +11996,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -10897,7 +12007,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="2">
         <v>0.72809999999999997</v>
       </c>
@@ -10909,8 +12019,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -10920,7 +12030,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="2">
         <v>0.53449999999999998</v>
       </c>
@@ -10932,8 +12042,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -10943,7 +12053,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="2">
         <v>0.47499999999999998</v>
       </c>
@@ -10956,18 +12066,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="F32:F37"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="F12:F17"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="F32:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10978,7 +12088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -10995,7 +12105,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -11030,10 +12140,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7">
         <v>15000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -11045,7 +12155,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -11058,7 +12168,7 @@
         <v>0.73919999999999997</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1">
         <f>SUM(E2:E7)</f>
@@ -11066,8 +12176,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -11077,7 +12187,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2">
         <v>0.59650000000000003</v>
       </c>
@@ -11089,8 +12199,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -11100,7 +12210,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="2">
         <v>0.87680000000000002</v>
       </c>
@@ -11112,8 +12222,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -11123,7 +12233,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2">
         <v>0.73309999999999997</v>
       </c>
@@ -11135,8 +12245,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -11146,7 +12256,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2">
         <v>0.63929999999999998</v>
       </c>
@@ -11158,8 +12268,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -11169,7 +12279,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2">
         <v>0.66849999999999998</v>
       </c>
@@ -11182,7 +12292,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>5</v>
@@ -11210,10 +12320,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7">
         <v>15000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -11225,7 +12335,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -11239,8 +12349,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -11250,7 +12360,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2">
         <v>0.64139999999999997</v>
       </c>
@@ -11262,8 +12372,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -11273,7 +12383,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2">
         <v>0.88070000000000004</v>
       </c>
@@ -11285,8 +12395,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -11296,7 +12406,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2">
         <v>0.73029999999999995</v>
       </c>
@@ -11308,8 +12418,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -11319,7 +12429,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="2">
         <v>0.60119999999999996</v>
       </c>
@@ -11331,8 +12441,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -11342,7 +12452,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="2">
         <v>0.64800000000000002</v>
       </c>
@@ -11355,7 +12465,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
@@ -11383,10 +12493,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7">
         <v>15000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -11398,7 +12508,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -11412,8 +12522,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -11423,7 +12533,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="2">
         <v>0.59019999999999995</v>
       </c>
@@ -11435,8 +12545,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -11446,7 +12556,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="2">
         <v>0.81289999999999996</v>
       </c>
@@ -11458,8 +12568,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -11469,7 +12579,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="2">
         <v>0.66200000000000003</v>
       </c>
@@ -11481,8 +12591,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -11492,7 +12602,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="2">
         <v>0.51139999999999997</v>
       </c>
@@ -11504,8 +12614,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -11515,7 +12625,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="2">
         <v>0.4647</v>
       </c>
@@ -11528,7 +12638,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>5</v>
@@ -11556,10 +12666,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="A32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7">
         <v>15000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -11571,7 +12681,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -11585,8 +12695,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -11596,7 +12706,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="2">
         <v>0.55679999999999996</v>
       </c>
@@ -11608,8 +12718,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -11619,7 +12729,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="2">
         <v>0.80889999999999995</v>
       </c>
@@ -11631,8 +12741,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -11642,7 +12752,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="2">
         <v>0.68010000000000004</v>
       </c>
@@ -11654,8 +12764,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -11665,7 +12775,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="2">
         <v>0.51129999999999998</v>
       </c>
@@ -11677,8 +12787,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -11688,7 +12798,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="2">
         <v>0.46350000000000002</v>
       </c>
@@ -11701,18 +12811,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="F32:F37"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="F12:F17"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="F32:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11723,7 +12833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -11740,7 +12850,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -11775,10 +12885,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7">
         <v>10000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -11790,7 +12900,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -11803,7 +12913,7 @@
         <v>0.68879999999999997</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1">
         <f>SUM(E2:E7)</f>
@@ -11811,8 +12921,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -11822,7 +12932,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2">
         <v>0.60089999999999999</v>
       </c>
@@ -11834,8 +12944,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -11845,7 +12955,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="2">
         <v>0.90449999999999997</v>
       </c>
@@ -11857,8 +12967,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -11868,7 +12978,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2">
         <v>0.72840000000000005</v>
       </c>
@@ -11880,8 +12990,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -11891,7 +13001,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2">
         <v>0.55689999999999995</v>
       </c>
@@ -11903,8 +13013,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -11914,7 +13024,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2">
         <v>0.65269999999999995</v>
       </c>
@@ -11927,7 +13037,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>5</v>
@@ -11955,10 +13065,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7">
         <v>10000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -11970,7 +13080,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -11984,8 +13094,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -11995,7 +13105,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2">
         <v>0.63859999999999995</v>
       </c>
@@ -12007,8 +13117,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -12018,7 +13128,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2">
         <v>0.88580000000000003</v>
       </c>
@@ -12030,8 +13140,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -12041,7 +13151,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2">
         <v>0.74929999999999997</v>
       </c>
@@ -12053,8 +13163,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -12064,7 +13174,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="2">
         <v>0.56789999999999996</v>
       </c>
@@ -12076,8 +13186,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -12087,7 +13197,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="2">
         <v>0.65390000000000004</v>
       </c>
@@ -12100,7 +13210,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
@@ -12128,10 +13238,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7">
         <v>10000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -12143,7 +13253,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -12157,8 +13267,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -12168,7 +13278,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="2">
         <v>0.59319999999999995</v>
       </c>
@@ -12180,8 +13290,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -12191,7 +13301,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="2">
         <v>0.86209999999999998</v>
       </c>
@@ -12203,8 +13313,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -12214,7 +13324,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="2">
         <v>0.68620000000000003</v>
       </c>
@@ -12226,8 +13336,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -12237,7 +13347,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="2">
         <v>0.50370000000000004</v>
       </c>
@@ -12249,8 +13359,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -12260,7 +13370,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="2">
         <v>0.46110000000000001</v>
       </c>
@@ -12273,7 +13383,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>5</v>
@@ -12301,10 +13411,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="A32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7">
         <v>10000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -12316,7 +13426,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -12330,8 +13440,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -12341,7 +13451,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="2">
         <v>0.58240000000000003</v>
       </c>
@@ -12353,8 +13463,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -12364,7 +13474,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="2">
         <v>0.80710000000000004</v>
       </c>
@@ -12376,8 +13486,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -12387,7 +13497,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="2">
         <v>0.64339999999999997</v>
       </c>
@@ -12399,8 +13509,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -12410,7 +13520,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="2">
         <v>0.44330000000000003</v>
       </c>
@@ -12422,8 +13532,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -12433,7 +13543,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="2">
         <v>0.44169999999999998</v>
       </c>
@@ -12446,18 +13556,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="F32:F37"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="F12:F17"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="F32:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12468,7 +13578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -12485,7 +13595,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -12520,10 +13630,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7">
         <v>5000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -12535,7 +13645,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -12548,7 +13658,7 @@
         <v>0.67230000000000001</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1">
         <f>SUM(E2:E7)</f>
@@ -12556,8 +13666,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -12567,7 +13677,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2">
         <v>0.61670000000000003</v>
       </c>
@@ -12579,8 +13689,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12590,7 +13700,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="2">
         <v>0.87129999999999996</v>
       </c>
@@ -12602,8 +13712,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -12613,7 +13723,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2">
         <v>0.67339000000000004</v>
       </c>
@@ -12625,8 +13735,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -12636,7 +13746,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2">
         <v>0.55420000000000003</v>
       </c>
@@ -12648,8 +13758,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -12659,7 +13769,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2">
         <v>0.6401</v>
       </c>
@@ -12672,7 +13782,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>5</v>
@@ -12700,10 +13810,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7">
         <v>5000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -12715,7 +13825,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -12729,8 +13839,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -12740,7 +13850,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2">
         <v>0.62829999999999997</v>
       </c>
@@ -12752,8 +13862,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -12763,7 +13873,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2">
         <v>0.88570000000000004</v>
       </c>
@@ -12775,8 +13885,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -12786,7 +13896,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2">
         <v>0.67269999999999996</v>
       </c>
@@ -12798,8 +13908,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -12809,7 +13919,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="2">
         <v>0.59040000000000004</v>
       </c>
@@ -12821,8 +13931,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -12832,7 +13942,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="2">
         <v>0.67049999999999998</v>
       </c>
@@ -12845,7 +13955,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
@@ -12873,10 +13983,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7">
         <v>5000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -12888,7 +13998,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -12902,8 +14012,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -12913,7 +14023,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="2">
         <v>0.59250000000000003</v>
       </c>
@@ -12925,8 +14035,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -12936,7 +14046,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="2">
         <v>0.84440000000000004</v>
       </c>
@@ -12948,8 +14058,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -12959,7 +14069,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="2">
         <v>0.63400000000000001</v>
       </c>
@@ -12971,8 +14081,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -12982,7 +14092,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="2">
         <v>0.44800000000000001</v>
       </c>
@@ -12994,8 +14104,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -13005,7 +14115,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="2">
         <v>0.43380000000000002</v>
       </c>
@@ -13018,7 +14128,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>5</v>
@@ -13046,10 +14156,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="A32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7">
         <v>5000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -13061,7 +14171,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -13075,8 +14185,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -13086,7 +14196,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="2">
         <v>0.58050000000000002</v>
       </c>
@@ -13098,8 +14208,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -13109,7 +14219,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="2">
         <v>0.77549999999999997</v>
       </c>
@@ -13121,8 +14231,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -13132,7 +14242,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="2">
         <v>0.62970000000000004</v>
       </c>
@@ -13144,8 +14254,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -13155,7 +14265,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="2">
         <v>0.4284</v>
       </c>
@@ -13167,8 +14277,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -13178,7 +14288,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="2">
         <v>0.42049999999999998</v>
       </c>
@@ -13191,18 +14301,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="F32:F37"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="F12:F17"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="F32:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13213,8 +14323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13230,7 +14340,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -13265,10 +14375,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7">
         <v>3000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -13280,7 +14390,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -13293,7 +14403,7 @@
         <v>0.66559999999999997</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1">
         <f>SUM(E2:E7)</f>
@@ -13301,8 +14411,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -13312,7 +14422,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2">
         <v>0.61570000000000003</v>
       </c>
@@ -13324,8 +14434,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -13335,7 +14445,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="2">
         <v>0.87770000000000004</v>
       </c>
@@ -13347,8 +14457,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -13358,7 +14468,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2">
         <v>0.64159999999999995</v>
       </c>
@@ -13370,8 +14480,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -13381,7 +14491,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2">
         <v>0.4788</v>
       </c>
@@ -13393,8 +14503,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -13404,7 +14514,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2">
         <v>0.66810000000000003</v>
       </c>
@@ -13417,7 +14527,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>5</v>
@@ -13445,10 +14555,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7">
         <v>3000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -13460,7 +14570,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -13474,8 +14584,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -13485,7 +14595,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2">
         <v>0.59589999999999999</v>
       </c>
@@ -13497,8 +14607,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -13508,7 +14618,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2">
         <v>0.86939999999999995</v>
       </c>
@@ -13520,8 +14630,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -13531,7 +14641,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2">
         <v>0.62439999999999996</v>
       </c>
@@ -13543,8 +14653,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -13554,7 +14664,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="2">
         <v>0.56369999999999998</v>
       </c>
@@ -13566,8 +14676,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -13577,7 +14687,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="2">
         <v>0.65139999999999998</v>
       </c>
@@ -13590,7 +14700,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
@@ -13618,10 +14728,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7">
         <v>3000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -13633,7 +14743,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -13647,8 +14757,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -13658,7 +14768,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="2">
         <v>0.55220000000000002</v>
       </c>
@@ -13670,8 +14780,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -13681,7 +14791,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="2">
         <v>0.79910000000000003</v>
       </c>
@@ -13693,8 +14803,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -13704,7 +14814,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="2">
         <v>0.6119</v>
       </c>
@@ -13716,8 +14826,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -13727,7 +14837,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="2">
         <v>0.39679999999999999</v>
       </c>
@@ -13739,8 +14849,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -13750,7 +14860,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="2">
         <v>0.4385</v>
       </c>
@@ -13763,7 +14873,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>5</v>
@@ -13791,10 +14901,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="A32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7">
         <v>5000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -13806,7 +14916,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -13820,8 +14930,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -13831,7 +14941,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="2">
         <v>0.5595</v>
       </c>
@@ -13843,8 +14953,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -13854,7 +14964,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="2">
         <v>0.76919999999999999</v>
       </c>
@@ -13866,8 +14976,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -13877,7 +14987,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="2">
         <v>0.60399999999999998</v>
       </c>
@@ -13889,8 +14999,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -13900,7 +15010,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="2">
         <v>0.38529999999999998</v>
       </c>
@@ -13912,8 +15022,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -13923,7 +15033,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="2">
         <v>0.432</v>
       </c>
@@ -13936,18 +15046,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="F32:F37"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="F12:F17"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="F32:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/data/ExperimentResultDetails_WithAccuracy.xlsx
+++ b/data/ExperimentResultDetails_WithAccuracy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="CountVector " sheetId="5" r:id="rId1"/>
@@ -19,14 +19,16 @@
     <sheet name="TagsPerCategory" sheetId="6" r:id="rId10"/>
     <sheet name="Top Frequecy Word Each Category" sheetId="4" r:id="rId11"/>
     <sheet name="Crime Dataset Result" sheetId="17" r:id="rId12"/>
+    <sheet name="Words Per Cateogry" sheetId="18" r:id="rId13"/>
+    <sheet name="Words Per Cateogry (clean doc)" sheetId="19" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="46">
   <si>
     <t>Algorithm</t>
   </si>
@@ -163,28 +165,19 @@
     <t>Neutral</t>
   </si>
   <si>
-    <t>Overall</t>
+    <t>Average</t>
   </si>
   <si>
-    <t>Class</t>
+    <t>Number of Words</t>
   </si>
   <si>
-    <t>TP</t>
+    <t>Average words per docs</t>
   </si>
   <si>
-    <t>FP</t>
+    <t>Whole Dataset</t>
   </si>
   <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Taking the lowest value of precision</t>
+    <t>Small Scale Dataset</t>
   </si>
 </sst>
 </file>
@@ -249,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -272,50 +265,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -330,22 +286,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -679,7 +630,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -978,7 +928,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1302,7 +1251,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1626,7 +1574,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1950,7 +1897,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2274,7 +2220,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2598,7 +2543,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8382,7 +8326,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8442,7 +8386,7 @@
       <c r="C2" s="1">
         <v>511</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -8478,7 +8422,7 @@
       <c r="C3" s="1">
         <v>391</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
@@ -8512,7 +8456,7 @@
       <c r="C4" s="1">
         <v>519</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -8546,7 +8490,7 @@
       <c r="C5" s="1">
         <v>334</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
@@ -8580,7 +8524,7 @@
       <c r="C6" s="1">
         <v>546</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -8614,7 +8558,7 @@
       <c r="C7" s="1">
         <v>2001</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
@@ -8683,7 +8627,7 @@
       <c r="C11" s="1">
         <v>511</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -8719,7 +8663,7 @@
       <c r="C12" s="1">
         <v>391</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -8753,7 +8697,7 @@
       <c r="C13" s="1">
         <v>519</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
@@ -8787,7 +8731,7 @@
       <c r="C14" s="1">
         <v>334</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
@@ -8821,7 +8765,7 @@
       <c r="C15" s="1">
         <v>546</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
@@ -8855,7 +8799,7 @@
       <c r="C16" s="1">
         <v>2001</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
@@ -8912,7 +8856,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8997,70 +8941,70 @@
   </cols>
   <sheetData>
     <row r="4" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="U4" s="8" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="U4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
     </row>
     <row r="23" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="U23" s="8" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="U23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
     </row>
     <row r="42" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="U42" s="8" t="s">
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="U42" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9079,25 +9023,24 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -9129,48 +9072,36 @@
         <v>28</v>
       </c>
       <c r="M1" s="1">
-        <v>9795</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+        <v>9879</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6">
         <v>3000</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="9">
-        <v>9795</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="D2" s="11">
+        <v>9879</v>
+      </c>
+      <c r="E2" s="11">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>0.6129</v>
+        <v>0.62470000000000003</v>
       </c>
       <c r="H2" s="2">
-        <v>0.35549999999999998</v>
+        <v>0.37690000000000001</v>
       </c>
       <c r="I2" s="2">
-        <v>0.45</v>
+        <v>0.47020000000000001</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>27</v>
@@ -9178,53 +9109,29 @@
       <c r="M2" s="1">
         <v>8</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.33539999999999998</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.65849999999999997</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.44440000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
       <c r="B3" s="6">
         <v>6000</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="2">
-        <v>0.6109</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="H3" s="2">
-        <v>0.35510000000000003</v>
+        <v>0.38829999999999998</v>
       </c>
       <c r="I3" s="2">
-        <v>0.4491</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.38179999999999997</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.4733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>9000</v>
       </c>
       <c r="C4" s="11"/>
@@ -9232,831 +9139,970 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="2">
-        <v>0.61050000000000004</v>
+        <v>0.60560000000000003</v>
       </c>
       <c r="H4" s="2">
-        <v>0.3538</v>
+        <v>0.38329999999999997</v>
       </c>
       <c r="I4" s="2">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="P4" s="1" t="s">
+        <v>0.46949999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3000</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="11">
+        <v>9879</v>
+      </c>
+      <c r="E7" s="11">
+        <v>8</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.6089</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.45910000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="6">
+        <v>6000</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="2">
+        <v>0.60909999999999997</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.35749999999999998</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.4506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="7">
+        <v>9000</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="2">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.36980000000000002</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="11">
+        <v>9879</v>
+      </c>
+      <c r="E12" s="11">
+        <v>8</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.60409999999999997</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.36830000000000002</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.45729999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="6">
+        <v>6000</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="2">
+        <v>0.60160000000000002</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.36380000000000001</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="7">
+        <v>9000</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="2">
+        <v>0.61119999999999997</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.45590000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="11">
+        <v>9879</v>
+      </c>
+      <c r="E17" s="11">
+        <v>8</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.37690000000000001</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.46089999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="8">
+        <v>6000</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="2">
+        <v>0.59609999999999996</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.37009999999999998</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.45629999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="8">
+        <v>9000</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="2">
+        <v>0.59350000000000003</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.44379999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.33539999999999998</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.44440000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.38179999999999997</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.42230000000000001</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.5333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="C28" s="2">
         <v>0.29909999999999998</v>
       </c>
-      <c r="R4" s="2">
+      <c r="D28" s="2">
         <v>0.63749999999999996</v>
       </c>
-      <c r="S4" s="2">
+      <c r="E28" s="2">
         <v>0.40720000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0.42230000000000001</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0.72360000000000002</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0.5333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P6" s="1" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="C29" s="2">
         <v>0.26190000000000002</v>
       </c>
-      <c r="R6" s="2">
+      <c r="D29" s="2">
         <v>0.625</v>
       </c>
-      <c r="S6" s="2">
+      <c r="E29" s="2">
         <v>0.36909999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="1" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="C30" s="2">
         <v>0.70269999999999999</v>
       </c>
-      <c r="R7" s="2">
+      <c r="D30" s="2">
         <v>0.8125</v>
       </c>
-      <c r="S7" s="2">
+      <c r="E30" s="2">
         <v>0.75360000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="9">
-        <v>9795</v>
-      </c>
-      <c r="E8" s="9">
-        <v>8</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.6089</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.36849999999999999</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.45910000000000001</v>
-      </c>
-      <c r="P8" s="1" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="C31" s="2">
         <v>0.69910000000000005</v>
       </c>
-      <c r="R8" s="2">
+      <c r="D31" s="2">
         <v>0.73829999999999996</v>
       </c>
-      <c r="S8" s="2">
+      <c r="E31" s="2">
         <v>0.71819999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="2">
-        <v>0.60909999999999997</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.35749999999999998</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.4506</v>
-      </c>
-      <c r="P9" s="1" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="C32" s="2">
         <v>0.91659999999999997</v>
       </c>
-      <c r="R9" s="2">
+      <c r="D32" s="2">
         <v>0.68959999999999999</v>
       </c>
-      <c r="S9" s="2">
+      <c r="E32" s="2">
         <v>0.78710000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="6">
-        <v>9000</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="2">
-        <v>0.61539999999999995</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.36980000000000002</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="P10" s="13" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="14">
-        <v>0.46679999999999999</v>
-      </c>
-      <c r="R10" s="2">
-        <f>SUM(R2:R9)/8</f>
+      <c r="C33" s="2">
+        <f>SUM(C25:C32)/8</f>
+        <v>0.46678749999999997</v>
+      </c>
+      <c r="D33" s="10">
+        <f>SUM(D25:D32)/8</f>
         <v>0.65834999999999999</v>
       </c>
-      <c r="S10" s="2">
-        <f>SUM(S2:S9)/8</f>
+      <c r="E33" s="2">
+        <f>SUM(E25:E32)/8</f>
         <v>0.52098750000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="9">
-        <v>9795</v>
-      </c>
-      <c r="E14" s="9">
-        <v>8</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.60409999999999997</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.36830000000000002</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.45729999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="2">
-        <v>0.60160000000000002</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.36380000000000001</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="6">
-        <v>9000</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="2">
-        <v>0.61119999999999997</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.45590000000000003</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>347</v>
-      </c>
-      <c r="R16" s="1">
-        <v>291</v>
-      </c>
-      <c r="S16" s="1">
-        <v>269</v>
-      </c>
-      <c r="T16" s="1">
-        <v>2106</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0.54379999999999995</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0.56330000000000002</v>
-      </c>
-      <c r="W16" s="15">
-        <f>(2*U16*V16 )/(U16+V16)</f>
-        <v>0.55337826754584041</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>65</v>
-      </c>
-      <c r="R17" s="1">
-        <v>151</v>
-      </c>
-      <c r="S17" s="1">
-        <v>161</v>
-      </c>
-      <c r="T17" s="1">
-        <v>2636</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0.3009</v>
-      </c>
-      <c r="V17" s="2">
-        <v>0.28760000000000002</v>
-      </c>
-      <c r="W17" s="15">
-        <f t="shared" ref="W17:W23" si="0">(2*U17*V17 )/(U17+V17)</f>
-        <v>0.2940997111299915</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>177</v>
-      </c>
-      <c r="R18" s="1">
-        <v>164</v>
-      </c>
-      <c r="S18" s="1">
-        <v>190</v>
-      </c>
-      <c r="T18" s="1">
-        <v>2482</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0.48220000000000002</v>
-      </c>
-      <c r="W18" s="15">
-        <f t="shared" si="0"/>
-        <v>0.4999236915701159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>222</v>
-      </c>
-      <c r="R19" s="1">
-        <v>119</v>
-      </c>
-      <c r="S19" s="1">
-        <v>211</v>
-      </c>
-      <c r="T19" s="1">
-        <v>2461</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0.51270000000000004</v>
-      </c>
-      <c r="W19" s="15">
-        <f t="shared" si="0"/>
-        <v>0.57363186388244403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="9">
-        <v>9795</v>
-      </c>
-      <c r="E20" s="9">
-        <v>8</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.59440000000000004</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.37690000000000001</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.46089999999999998</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>119</v>
-      </c>
-      <c r="R20" s="1">
-        <v>91</v>
-      </c>
-      <c r="S20" s="1">
-        <v>165</v>
-      </c>
-      <c r="T20" s="1">
-        <v>2638</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0.56669999999999998</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="W20" s="15">
-        <f t="shared" si="0"/>
-        <v>0.48178411281322914</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="2">
-        <v>0.59609999999999996</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.37009999999999998</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.45629999999999998</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>102</v>
-      </c>
-      <c r="R21" s="1">
-        <v>9</v>
-      </c>
-      <c r="S21" s="1">
-        <v>62</v>
-      </c>
-      <c r="T21" s="1">
-        <v>2840</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0.91890000000000005</v>
-      </c>
-      <c r="V21" s="2">
-        <v>0.62190000000000001</v>
-      </c>
-      <c r="W21" s="15">
-        <f t="shared" si="0"/>
-        <v>0.74177558411214961</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="6">
-        <v>9000</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="2">
-        <v>0.59350000000000003</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.35539999999999999</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.44379999999999997</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>92</v>
-      </c>
-      <c r="R22" s="1">
-        <v>21</v>
-      </c>
-      <c r="S22" s="1">
-        <v>71</v>
-      </c>
-      <c r="T22" s="1">
-        <v>2829</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0.81410000000000005</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0.56440000000000001</v>
-      </c>
-      <c r="W22" s="15">
-        <f t="shared" si="0"/>
-        <v>0.66663480594849478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>1325</v>
-      </c>
-      <c r="R23" s="1">
-        <v>389</v>
-      </c>
-      <c r="S23" s="1">
-        <v>414</v>
-      </c>
-      <c r="T23" s="1">
-        <v>885</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="W23" s="15">
-        <f t="shared" si="0"/>
-        <v>0.76740986383477749</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P24" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q24" s="1">
-        <f>SUM(Q16:Q23)</f>
-        <v>2449</v>
-      </c>
-      <c r="R24" s="1">
-        <f>SUM(R16:R23)</f>
-        <v>1235</v>
-      </c>
-      <c r="S24" s="1">
-        <f>SUM(S16:S23)</f>
-        <v>1543</v>
-      </c>
-      <c r="T24" s="1">
-        <f>SUM(T16:T23)</f>
-        <v>18877</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0.66479999999999995</v>
-      </c>
-      <c r="V24" s="2">
-        <v>0.61350000000000005</v>
-      </c>
-      <c r="W24" s="2">
-        <v>0.6381</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0.33539999999999998</v>
-      </c>
-      <c r="R31" s="2">
-        <v>0.56330000000000002</v>
-      </c>
-      <c r="S31" s="15">
-        <f xml:space="preserve"> (2*Q31*R31)/(Q31+R31)</f>
-        <v>0.42045358851674636</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="R32" s="2">
-        <v>0.28760000000000002</v>
-      </c>
-      <c r="S32" s="15">
-        <f t="shared" ref="S32:S39" si="1" xml:space="preserve"> (2*Q32*R32)/(Q32+R32)</f>
-        <v>0.14529480249480251</v>
-      </c>
-    </row>
-    <row r="33" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0.29909999999999998</v>
-      </c>
-      <c r="R33" s="2">
-        <v>0.48220000000000002</v>
-      </c>
-      <c r="S33" s="15">
-        <f t="shared" si="1"/>
-        <v>0.36919498272110579</v>
-      </c>
-    </row>
-    <row r="34" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>0.42230000000000001</v>
-      </c>
-      <c r="R34" s="2">
-        <v>0.51270000000000004</v>
-      </c>
-      <c r="S34" s="15">
-        <f t="shared" si="1"/>
-        <v>0.46312986096256686</v>
-      </c>
-    </row>
-    <row r="35" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>0.26190000000000002</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0.36909999999999998</v>
-      </c>
-      <c r="S35" s="15">
-        <f t="shared" si="1"/>
-        <v>0.30639394611727416</v>
-      </c>
-    </row>
-    <row r="36" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>0.70269999999999999</v>
-      </c>
-      <c r="R36" s="2">
-        <v>0.62190000000000001</v>
-      </c>
-      <c r="S36" s="15">
-        <f t="shared" si="1"/>
-        <v>0.65983561829986415</v>
-      </c>
-    </row>
-    <row r="37" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0.69910000000000005</v>
-      </c>
-      <c r="R37" s="2">
-        <v>0.56440000000000001</v>
-      </c>
-      <c r="S37" s="15">
-        <f t="shared" si="1"/>
-        <v>0.62456990898298381</v>
-      </c>
-    </row>
-    <row r="38" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="R38" s="2">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="S38" s="15">
-        <f t="shared" si="1"/>
-        <v>0.76740986383477749</v>
-      </c>
-    </row>
-    <row r="39" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P39" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q39" s="2">
-        <f>SUM(Q31:Q38)/8</f>
-        <v>0.4488375</v>
-      </c>
-      <c r="R39" s="2">
-        <f>SUM(R31:R38)/8</f>
-        <v>0.5203875</v>
-      </c>
-      <c r="S39" s="15">
-        <f t="shared" si="1"/>
-        <v>0.481971522672754</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
     <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>58772</v>
+      </c>
+      <c r="D2" s="1">
+        <v>15776984</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2/C2</f>
+        <v>268.44388484312259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13781</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3325619</v>
+      </c>
+      <c r="E3" s="1">
+        <f xml:space="preserve"> D3/C3</f>
+        <v>241.31913504099848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>18854</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5263068</v>
+      </c>
+      <c r="E4" s="1">
+        <f xml:space="preserve"> D4/C4</f>
+        <v>279.14861567837062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35074</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8585734</v>
+      </c>
+      <c r="E5" s="1">
+        <f xml:space="preserve"> D5/C5</f>
+        <v>244.78913155043622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35244</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8452205</v>
+      </c>
+      <c r="E6" s="1">
+        <f xml:space="preserve"> D6/C6</f>
+        <v>239.81968562024741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>254564</v>
+      </c>
+      <c r="D7" s="1">
+        <v>62497030</v>
+      </c>
+      <c r="E7" s="1">
+        <f xml:space="preserve"> D7/C7</f>
+        <v>245.50615955123268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4915</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1069529</v>
+      </c>
+      <c r="E12" s="1">
+        <f>D12/C12</f>
+        <v>217.60508646998983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2345</v>
+      </c>
+      <c r="D13" s="1">
+        <v>452738</v>
+      </c>
+      <c r="E13" s="1">
+        <f xml:space="preserve"> D13/C13</f>
+        <v>193.06524520255863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2041</v>
+      </c>
+      <c r="D14" s="1">
+        <v>545146</v>
+      </c>
+      <c r="E14" s="1">
+        <f xml:space="preserve"> D14/C14</f>
+        <v>267.09750122488975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4036</v>
+      </c>
+      <c r="D15" s="1">
+        <v>895881</v>
+      </c>
+      <c r="E15" s="1">
+        <f xml:space="preserve"> D15/C15</f>
+        <v>221.97249752229931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4270</v>
+      </c>
+      <c r="D16" s="1">
+        <v>921224</v>
+      </c>
+      <c r="E16" s="1">
+        <f xml:space="preserve"> D16/C16</f>
+        <v>215.7433255269321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4565</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1110612</v>
+      </c>
+      <c r="E17" s="1">
+        <f xml:space="preserve"> D17/C17</f>
+        <v>243.28849945235487</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A12:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>58772</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7431891</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2/C2</f>
+        <v>126.45291975770775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13781</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1618804</v>
+      </c>
+      <c r="E3" s="1">
+        <f xml:space="preserve"> D3/C3</f>
+        <v>117.46636673681155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>18854</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2678132</v>
+      </c>
+      <c r="E4" s="1">
+        <f xml:space="preserve"> D4/C4</f>
+        <v>142.04582581945476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35074</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4211546</v>
+      </c>
+      <c r="E5" s="1">
+        <f xml:space="preserve"> D5/C5</f>
+        <v>120.07601072019159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35244</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4241536</v>
+      </c>
+      <c r="E6" s="1">
+        <f xml:space="preserve"> D6/C6</f>
+        <v>120.34774713426398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>254564</v>
+      </c>
+      <c r="D7" s="1">
+        <v>33591292</v>
+      </c>
+      <c r="E7" s="1">
+        <f xml:space="preserve"> D7/C7</f>
+        <v>131.95617605003065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4915</v>
+      </c>
+      <c r="D12" s="1">
+        <v>509711</v>
+      </c>
+      <c r="E12" s="1">
+        <f>D12/C12</f>
+        <v>103.70518819938962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2345</v>
+      </c>
+      <c r="D13" s="1">
+        <v>229098</v>
+      </c>
+      <c r="E13" s="1">
+        <f xml:space="preserve"> D13/C13</f>
+        <v>97.696375266524527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2041</v>
+      </c>
+      <c r="D14" s="1">
+        <v>275278</v>
+      </c>
+      <c r="E14" s="1">
+        <f xml:space="preserve"> D14/C14</f>
+        <v>134.87408133268005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4036</v>
+      </c>
+      <c r="D15" s="1">
+        <v>458175</v>
+      </c>
+      <c r="E15" s="1">
+        <f xml:space="preserve"> D15/C15</f>
+        <v>113.52205153617443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4270</v>
+      </c>
+      <c r="D16" s="1">
+        <v>468499</v>
+      </c>
+      <c r="E16" s="1">
+        <f xml:space="preserve"> D16/C16</f>
+        <v>109.71873536299766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4565</v>
+      </c>
+      <c r="D17" s="1">
+        <v>602680</v>
+      </c>
+      <c r="E17" s="1">
+        <f xml:space="preserve"> D17/C17</f>
+        <v>132.02190580503833</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10068,7 +10114,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10129,7 +10175,7 @@
       <c r="C2" s="1">
         <v>511</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -10165,7 +10211,7 @@
       <c r="C3" s="1">
         <v>391</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
@@ -10199,7 +10245,7 @@
       <c r="C4" s="1">
         <v>519</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -10233,7 +10279,7 @@
       <c r="C5" s="1">
         <v>334</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
@@ -10267,7 +10313,7 @@
       <c r="C6" s="1">
         <v>546</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -10301,7 +10347,7 @@
       <c r="C7" s="1">
         <v>2001</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
@@ -10370,7 +10416,7 @@
       <c r="C11" s="1">
         <v>511</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -10406,7 +10452,7 @@
       <c r="C12" s="1">
         <v>391</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -10440,7 +10486,7 @@
       <c r="C13" s="1">
         <v>519</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
@@ -10474,7 +10520,7 @@
       <c r="C14" s="1">
         <v>334</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
@@ -10508,7 +10554,7 @@
       <c r="C15" s="1">
         <v>546</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
@@ -10542,7 +10588,7 @@
       <c r="C16" s="1">
         <v>2001</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
@@ -10650,10 +10696,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="11">
         <v>24000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -10665,7 +10711,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -10686,8 +10732,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -10697,7 +10743,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="2">
         <v>0.63270000000000004</v>
       </c>
@@ -10709,8 +10755,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -10720,7 +10766,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="2">
         <v>0.90369999999999995</v>
       </c>
@@ -10732,8 +10778,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -10743,7 +10789,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="2">
         <v>0.73629999999999995</v>
       </c>
@@ -10755,8 +10801,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -10766,7 +10812,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="2">
         <v>0.60750000000000004</v>
       </c>
@@ -10778,8 +10824,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -10789,7 +10835,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="2">
         <v>0.66490000000000005</v>
       </c>
@@ -10830,10 +10876,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="11">
         <v>24000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -10845,7 +10891,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -10859,8 +10905,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -10870,7 +10916,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="2">
         <v>0.66100000000000003</v>
       </c>
@@ -10882,8 +10928,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -10893,7 +10939,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="2">
         <v>0.91090000000000004</v>
       </c>
@@ -10905,8 +10951,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -10916,7 +10962,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2">
         <v>0.75739999999999996</v>
       </c>
@@ -10928,8 +10974,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -10939,7 +10985,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="2">
         <v>0.68489999999999995</v>
       </c>
@@ -10951,8 +10997,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -10962,7 +11008,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="2">
         <v>0.67830000000000001</v>
       </c>
@@ -11003,10 +11049,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="11">
         <v>24000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -11018,7 +11064,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -11032,8 +11078,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -11043,7 +11089,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2">
         <v>0.60199999999999998</v>
       </c>
@@ -11055,8 +11101,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -11066,7 +11112,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2">
         <v>0.8024</v>
       </c>
@@ -11078,8 +11124,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -11089,7 +11135,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2">
         <v>0.72440000000000004</v>
       </c>
@@ -11101,8 +11147,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -11112,7 +11158,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2">
         <v>0.56640000000000001</v>
       </c>
@@ -11124,8 +11170,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -11135,7 +11181,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2">
         <v>0.51</v>
       </c>
@@ -11176,10 +11222,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="11">
         <v>24000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -11191,7 +11237,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -11205,8 +11251,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -11216,7 +11262,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2">
         <v>0.59130000000000005</v>
       </c>
@@ -11228,8 +11274,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -11239,7 +11285,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="2">
         <v>0.79769999999999996</v>
       </c>
@@ -11251,8 +11297,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -11262,7 +11308,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="2">
         <v>0.7399</v>
       </c>
@@ -11274,8 +11320,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -11285,7 +11331,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="2">
         <v>0.55920000000000003</v>
       </c>
@@ -11297,8 +11343,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -11308,7 +11354,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="2">
         <v>0.49370000000000003</v>
       </c>
@@ -11395,10 +11441,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="11">
         <v>20000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -11410,7 +11456,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -11431,8 +11477,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -11442,7 +11488,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="2">
         <v>0.63990000000000002</v>
       </c>
@@ -11454,8 +11500,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -11465,7 +11511,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="2">
         <v>0.89649999999999996</v>
       </c>
@@ -11477,8 +11523,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -11488,7 +11534,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="2">
         <v>0.75580000000000003</v>
       </c>
@@ -11500,8 +11546,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -11511,7 +11557,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="2">
         <v>0.64710000000000001</v>
       </c>
@@ -11523,8 +11569,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -11534,7 +11580,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="2">
         <v>0.6694</v>
       </c>
@@ -11575,10 +11621,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="11">
         <v>20000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -11590,7 +11636,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -11604,8 +11650,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -11615,7 +11661,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="2">
         <v>0.64910000000000001</v>
       </c>
@@ -11627,8 +11673,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -11638,7 +11684,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="2">
         <v>0.89170000000000005</v>
       </c>
@@ -11650,8 +11696,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -11661,7 +11707,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2">
         <v>0.74299999999999999</v>
       </c>
@@ -11673,8 +11719,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -11684,7 +11730,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="2">
         <v>0.61409999999999998</v>
       </c>
@@ -11696,8 +11742,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -11707,7 +11753,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="2">
         <v>0.66080000000000005</v>
       </c>
@@ -11748,10 +11794,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="11">
         <v>20000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -11763,7 +11809,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -11777,8 +11823,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -11788,7 +11834,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2">
         <v>0.56010000000000004</v>
       </c>
@@ -11800,8 +11846,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -11811,7 +11857,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2">
         <v>0.85360000000000003</v>
       </c>
@@ -11823,8 +11869,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -11834,7 +11880,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2">
         <v>0.71830000000000005</v>
       </c>
@@ -11846,8 +11892,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -11857,7 +11903,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2">
         <v>0.54449999999999998</v>
       </c>
@@ -11869,8 +11915,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -11880,7 +11926,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2">
         <v>0.50319999999999998</v>
       </c>
@@ -11921,10 +11967,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="11">
         <v>20000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -11936,7 +11982,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -11950,8 +11996,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -11961,7 +12007,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2">
         <v>0.58289999999999997</v>
       </c>
@@ -11973,8 +12019,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -11984,7 +12030,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="2">
         <v>0.78259999999999996</v>
       </c>
@@ -11996,8 +12042,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -12007,7 +12053,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="2">
         <v>0.72809999999999997</v>
       </c>
@@ -12019,8 +12065,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -12030,7 +12076,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="2">
         <v>0.53449999999999998</v>
       </c>
@@ -12042,8 +12088,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -12053,7 +12099,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="2">
         <v>0.47499999999999998</v>
       </c>
@@ -12066,18 +12112,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="F12:F17"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="F22:F27"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="F32:F37"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="F12:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12140,10 +12186,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="11">
         <v>15000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -12155,7 +12201,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -12176,8 +12222,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -12187,7 +12233,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="2">
         <v>0.59650000000000003</v>
       </c>
@@ -12199,8 +12245,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12210,7 +12256,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="2">
         <v>0.87680000000000002</v>
       </c>
@@ -12222,8 +12268,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -12233,7 +12279,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="2">
         <v>0.73309999999999997</v>
       </c>
@@ -12245,8 +12291,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -12256,7 +12302,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="2">
         <v>0.63929999999999998</v>
       </c>
@@ -12268,8 +12314,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -12279,7 +12325,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="2">
         <v>0.66849999999999998</v>
       </c>
@@ -12320,10 +12366,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="11">
         <v>15000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -12335,7 +12381,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -12349,8 +12395,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -12360,7 +12406,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="2">
         <v>0.64139999999999997</v>
       </c>
@@ -12372,8 +12418,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -12383,7 +12429,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="2">
         <v>0.88070000000000004</v>
       </c>
@@ -12395,8 +12441,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -12406,7 +12452,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2">
         <v>0.73029999999999995</v>
       </c>
@@ -12418,8 +12464,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -12429,7 +12475,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="2">
         <v>0.60119999999999996</v>
       </c>
@@ -12441,8 +12487,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -12452,7 +12498,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="2">
         <v>0.64800000000000002</v>
       </c>
@@ -12493,10 +12539,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="11">
         <v>15000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -12508,7 +12554,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -12522,8 +12568,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -12533,7 +12579,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2">
         <v>0.59019999999999995</v>
       </c>
@@ -12545,8 +12591,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -12556,7 +12602,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2">
         <v>0.81289999999999996</v>
       </c>
@@ -12568,8 +12614,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -12579,7 +12625,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2">
         <v>0.66200000000000003</v>
       </c>
@@ -12591,8 +12637,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -12602,7 +12648,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2">
         <v>0.51139999999999997</v>
       </c>
@@ -12614,8 +12660,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -12625,7 +12671,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2">
         <v>0.4647</v>
       </c>
@@ -12666,10 +12712,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="11">
         <v>15000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -12681,7 +12727,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -12695,8 +12741,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -12706,7 +12752,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2">
         <v>0.55679999999999996</v>
       </c>
@@ -12718,8 +12764,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -12729,7 +12775,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="2">
         <v>0.80889999999999995</v>
       </c>
@@ -12741,8 +12787,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -12752,7 +12798,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="2">
         <v>0.68010000000000004</v>
       </c>
@@ -12764,8 +12810,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -12775,7 +12821,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="2">
         <v>0.51129999999999998</v>
       </c>
@@ -12787,8 +12833,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -12798,7 +12844,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="2">
         <v>0.46350000000000002</v>
       </c>
@@ -12811,18 +12857,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="F12:F17"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="F22:F27"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="F32:F37"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="F12:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12885,10 +12931,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="11">
         <v>10000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -12900,7 +12946,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -12921,8 +12967,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -12932,7 +12978,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="2">
         <v>0.60089999999999999</v>
       </c>
@@ -12944,8 +12990,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12955,7 +13001,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="2">
         <v>0.90449999999999997</v>
       </c>
@@ -12967,8 +13013,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -12978,7 +13024,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="2">
         <v>0.72840000000000005</v>
       </c>
@@ -12990,8 +13036,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -13001,7 +13047,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="2">
         <v>0.55689999999999995</v>
       </c>
@@ -13013,8 +13059,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -13024,7 +13070,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="2">
         <v>0.65269999999999995</v>
       </c>
@@ -13065,10 +13111,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="11">
         <v>10000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -13080,7 +13126,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -13094,8 +13140,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -13105,7 +13151,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="2">
         <v>0.63859999999999995</v>
       </c>
@@ -13117,8 +13163,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -13128,7 +13174,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="2">
         <v>0.88580000000000003</v>
       </c>
@@ -13140,8 +13186,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -13151,7 +13197,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2">
         <v>0.74929999999999997</v>
       </c>
@@ -13163,8 +13209,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -13174,7 +13220,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="2">
         <v>0.56789999999999996</v>
       </c>
@@ -13186,8 +13232,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -13197,7 +13243,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="2">
         <v>0.65390000000000004</v>
       </c>
@@ -13238,10 +13284,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="11">
         <v>10000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -13253,7 +13299,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -13267,8 +13313,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -13278,7 +13324,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2">
         <v>0.59319999999999995</v>
       </c>
@@ -13290,8 +13336,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -13301,7 +13347,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2">
         <v>0.86209999999999998</v>
       </c>
@@ -13313,8 +13359,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -13324,7 +13370,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2">
         <v>0.68620000000000003</v>
       </c>
@@ -13336,8 +13382,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -13347,7 +13393,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2">
         <v>0.50370000000000004</v>
       </c>
@@ -13359,8 +13405,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -13370,7 +13416,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2">
         <v>0.46110000000000001</v>
       </c>
@@ -13411,10 +13457,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="11">
         <v>10000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -13426,7 +13472,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -13440,8 +13486,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -13451,7 +13497,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2">
         <v>0.58240000000000003</v>
       </c>
@@ -13463,8 +13509,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -13474,7 +13520,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="2">
         <v>0.80710000000000004</v>
       </c>
@@ -13486,8 +13532,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -13497,7 +13543,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="2">
         <v>0.64339999999999997</v>
       </c>
@@ -13509,8 +13555,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -13520,7 +13566,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="2">
         <v>0.44330000000000003</v>
       </c>
@@ -13532,8 +13578,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -13543,7 +13589,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="2">
         <v>0.44169999999999998</v>
       </c>
@@ -13556,18 +13602,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="F12:F17"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="F22:F27"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="F32:F37"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="F12:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13579,7 +13625,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13630,10 +13676,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="11">
         <v>5000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -13645,7 +13691,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -13666,8 +13712,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -13677,7 +13723,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="2">
         <v>0.61670000000000003</v>
       </c>
@@ -13689,8 +13735,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -13700,7 +13746,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="2">
         <v>0.87129999999999996</v>
       </c>
@@ -13712,8 +13758,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -13723,7 +13769,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="2">
         <v>0.67339000000000004</v>
       </c>
@@ -13735,8 +13781,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -13746,7 +13792,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="2">
         <v>0.55420000000000003</v>
       </c>
@@ -13758,8 +13804,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -13769,7 +13815,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="2">
         <v>0.6401</v>
       </c>
@@ -13810,10 +13856,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="11">
         <v>5000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -13825,7 +13871,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -13839,8 +13885,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -13850,7 +13896,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="2">
         <v>0.62829999999999997</v>
       </c>
@@ -13862,8 +13908,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -13873,7 +13919,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="2">
         <v>0.88570000000000004</v>
       </c>
@@ -13885,8 +13931,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -13896,7 +13942,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2">
         <v>0.67269999999999996</v>
       </c>
@@ -13908,8 +13954,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -13919,7 +13965,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="2">
         <v>0.59040000000000004</v>
       </c>
@@ -13931,8 +13977,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -13942,7 +13988,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="2">
         <v>0.67049999999999998</v>
       </c>
@@ -13983,10 +14029,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="11">
         <v>5000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -13998,7 +14044,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -14012,8 +14058,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -14023,7 +14069,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2">
         <v>0.59250000000000003</v>
       </c>
@@ -14035,8 +14081,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -14046,7 +14092,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2">
         <v>0.84440000000000004</v>
       </c>
@@ -14058,8 +14104,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -14069,7 +14115,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2">
         <v>0.63400000000000001</v>
       </c>
@@ -14081,8 +14127,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -14092,7 +14138,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2">
         <v>0.44800000000000001</v>
       </c>
@@ -14104,8 +14150,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -14115,7 +14161,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2">
         <v>0.43380000000000002</v>
       </c>
@@ -14156,10 +14202,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="11">
         <v>5000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -14171,7 +14217,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -14185,8 +14231,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -14196,7 +14242,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2">
         <v>0.58050000000000002</v>
       </c>
@@ -14208,8 +14254,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -14219,7 +14265,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="2">
         <v>0.77549999999999997</v>
       </c>
@@ -14231,8 +14277,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -14242,7 +14288,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="2">
         <v>0.62970000000000004</v>
       </c>
@@ -14254,8 +14300,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -14265,7 +14311,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="2">
         <v>0.4284</v>
       </c>
@@ -14277,8 +14323,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -14288,7 +14334,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="2">
         <v>0.42049999999999998</v>
       </c>
@@ -14301,18 +14347,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="F12:F17"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="F22:F27"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="F32:F37"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="F12:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -14323,8 +14369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14375,10 +14421,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="11">
         <v>3000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -14390,7 +14436,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -14411,8 +14457,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -14422,7 +14468,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="2">
         <v>0.61570000000000003</v>
       </c>
@@ -14434,8 +14480,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -14445,7 +14491,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="2">
         <v>0.87770000000000004</v>
       </c>
@@ -14457,8 +14503,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -14468,7 +14514,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="2">
         <v>0.64159999999999995</v>
       </c>
@@ -14480,8 +14526,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -14491,7 +14537,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="2">
         <v>0.4788</v>
       </c>
@@ -14503,8 +14549,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -14514,7 +14560,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="2">
         <v>0.66810000000000003</v>
       </c>
@@ -14555,10 +14601,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="11">
         <v>3000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -14570,7 +14616,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -14584,8 +14630,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -14595,7 +14641,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="2">
         <v>0.59589999999999999</v>
       </c>
@@ -14607,8 +14653,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -14618,7 +14664,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="2">
         <v>0.86939999999999995</v>
       </c>
@@ -14630,8 +14676,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -14641,7 +14687,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2">
         <v>0.62439999999999996</v>
       </c>
@@ -14653,8 +14699,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -14664,7 +14710,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="2">
         <v>0.56369999999999998</v>
       </c>
@@ -14676,8 +14722,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -14687,7 +14733,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="2">
         <v>0.65139999999999998</v>
       </c>
@@ -14728,10 +14774,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="11">
         <v>3000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -14743,7 +14789,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -14757,8 +14803,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -14768,7 +14814,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="2">
         <v>0.55220000000000002</v>
       </c>
@@ -14780,8 +14826,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -14791,7 +14837,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2">
         <v>0.79910000000000003</v>
       </c>
@@ -14803,8 +14849,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -14814,7 +14860,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2">
         <v>0.6119</v>
       </c>
@@ -14826,8 +14872,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -14837,7 +14883,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2">
         <v>0.39679999999999999</v>
       </c>
@@ -14849,8 +14895,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -14860,7 +14906,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2">
         <v>0.4385</v>
       </c>
@@ -14901,10 +14947,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="11">
         <v>5000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -14916,7 +14962,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -14930,8 +14976,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -14941,7 +14987,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2">
         <v>0.5595</v>
       </c>
@@ -14953,8 +14999,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -14964,7 +15010,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="2">
         <v>0.76919999999999999</v>
       </c>
@@ -14976,8 +15022,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -14987,7 +15033,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="2">
         <v>0.60399999999999998</v>
       </c>
@@ -14999,8 +15045,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -15010,7 +15056,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="2">
         <v>0.38529999999999998</v>
       </c>
@@ -15022,8 +15068,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -15033,7 +15079,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="2">
         <v>0.432</v>
       </c>
@@ -15046,18 +15092,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="F12:F17"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="F22:F27"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="F32:F37"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="F12:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/data/ExperimentResultDetails_WithAccuracy.xlsx
+++ b/data/ExperimentResultDetails_WithAccuracy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="CountVector " sheetId="5" r:id="rId1"/>
@@ -18,17 +18,16 @@
     <sheet name="No. of doc per category" sheetId="9" r:id="rId9"/>
     <sheet name="TagsPerCategory" sheetId="6" r:id="rId10"/>
     <sheet name="Top Frequecy Word Each Category" sheetId="4" r:id="rId11"/>
-    <sheet name="Crime Dataset Result" sheetId="17" r:id="rId12"/>
-    <sheet name="Words Per Cateogry" sheetId="18" r:id="rId13"/>
-    <sheet name="Words Per Cateogry (clean doc)" sheetId="19" r:id="rId14"/>
+    <sheet name="Words Per Cateogry" sheetId="18" r:id="rId12"/>
+    <sheet name="Words Per Cateogry (clean doc)" sheetId="19" r:id="rId13"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
-    <externalReference r:id="rId20"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="32">
   <si>
     <t>Algorithm</t>
   </si>
@@ -126,48 +125,6 @@
     <t>Total tags</t>
   </si>
   <si>
-    <t>Total Sentence</t>
-  </si>
-  <si>
-    <t>Crime</t>
-  </si>
-  <si>
-    <t>No. of Sentences</t>
-  </si>
-  <si>
-    <t>F1 Scroe</t>
-  </si>
-  <si>
-    <t>Class Name</t>
-  </si>
-  <si>
-    <t>Victim</t>
-  </si>
-  <si>
-    <t>Suspect</t>
-  </si>
-  <si>
-    <t>CrimeType</t>
-  </si>
-  <si>
-    <t>CrimePlace</t>
-  </si>
-  <si>
-    <t>CrimeTime</t>
-  </si>
-  <si>
-    <t>Hospital</t>
-  </si>
-  <si>
-    <t>Police Station</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Number of Words</t>
   </si>
   <si>
@@ -184,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,13 +168,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,12 +216,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -283,25 +232,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -630,6 +567,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -928,6 +866,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1251,6 +1190,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1574,6 +1514,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1897,6 +1838,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2220,6 +2162,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2543,6 +2486,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8386,7 +8330,7 @@
       <c r="C2" s="1">
         <v>511</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -8422,7 +8366,7 @@
       <c r="C3" s="1">
         <v>391</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
@@ -8456,7 +8400,7 @@
       <c r="C4" s="1">
         <v>519</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -8490,7 +8434,7 @@
       <c r="C5" s="1">
         <v>334</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
@@ -8524,7 +8468,7 @@
       <c r="C6" s="1">
         <v>546</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -8558,7 +8502,7 @@
       <c r="C7" s="1">
         <v>2001</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
@@ -8627,7 +8571,7 @@
       <c r="C11" s="1">
         <v>511</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -8663,7 +8607,7 @@
       <c r="C12" s="1">
         <v>391</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -8697,7 +8641,7 @@
       <c r="C13" s="1">
         <v>519</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
@@ -8731,7 +8675,7 @@
       <c r="C14" s="1">
         <v>334</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
@@ -8765,7 +8709,7 @@
       <c r="C15" s="1">
         <v>546</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
@@ -8799,7 +8743,7 @@
       <c r="C16" s="1">
         <v>2001</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
@@ -8941,70 +8885,70 @@
   </cols>
   <sheetData>
     <row r="4" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="U4" s="12" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="U4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
     </row>
     <row r="23" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="U23" s="12" t="s">
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="U23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
     </row>
     <row r="42" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="U42" s="12" t="s">
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="U42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="12"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9022,592 +8966,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1">
-        <v>9879</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="11">
-        <v>9879</v>
-      </c>
-      <c r="E2" s="11">
-        <v>8</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.62470000000000003</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.37690000000000001</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.47020000000000001</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="2">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.38829999999999998</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.4733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="7">
-        <v>9000</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="2">
-        <v>0.60560000000000003</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.38329999999999997</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.46949999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="11">
-        <v>9879</v>
-      </c>
-      <c r="E7" s="11">
-        <v>8</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.6089</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.36849999999999999</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.45910000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="2">
-        <v>0.60909999999999997</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.35749999999999998</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.4506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="7">
-        <v>9000</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="2">
-        <v>0.61539999999999995</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.36980000000000002</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.46200000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="11">
-        <v>9879</v>
-      </c>
-      <c r="E12" s="11">
-        <v>8</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.60409999999999997</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.36830000000000002</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.45729999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="2">
-        <v>0.60160000000000002</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.36380000000000001</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.45300000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="7">
-        <v>9000</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="2">
-        <v>0.61119999999999997</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.45590000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="8">
-        <v>3000</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="11">
-        <v>9879</v>
-      </c>
-      <c r="E17" s="11">
-        <v>8</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.59440000000000004</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.37690000000000001</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.46089999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8">
-        <v>6000</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="2">
-        <v>0.59609999999999996</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.37009999999999998</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.45629999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8">
-        <v>9000</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="2">
-        <v>0.59350000000000003</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.35539999999999999</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.44379999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.33539999999999998</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.65849999999999997</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.44440000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="2">
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.38179999999999997</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.42230000000000001</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.72360000000000002</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.5333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.29909999999999998</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.40720000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.26190000000000002</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.36909999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.70269999999999999</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.75360000000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.69910000000000005</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.73829999999999996</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.71819999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.91659999999999997</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.68959999999999999</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.78710000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="2">
-        <f>SUM(C25:C32)/8</f>
-        <v>0.46678749999999997</v>
-      </c>
-      <c r="D33" s="10">
-        <f>SUM(D25:D32)/8</f>
-        <v>0.65834999999999999</v>
-      </c>
-      <c r="E33" s="2">
-        <f>SUM(E25:E32)/8</f>
-        <v>0.52098750000000005</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -9632,15 +8990,15 @@
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>44</v>
+      <c r="A2" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -9657,7 +9015,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -9673,7 +9031,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -9689,7 +9047,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -9705,7 +9063,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -9721,7 +9079,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -9744,15 +9102,15 @@
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>45</v>
+      <c r="A12" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
@@ -9769,7 +9127,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -9785,7 +9143,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -9801,7 +9159,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -9817,7 +9175,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
@@ -9833,7 +9191,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
@@ -9858,11 +9216,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -9883,15 +9241,15 @@
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>44</v>
+      <c r="A2" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -9908,7 +9266,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -9924,7 +9282,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -9940,7 +9298,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -9956,7 +9314,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -9972,7 +9330,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -9995,15 +9353,15 @@
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>45</v>
+      <c r="A12" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
@@ -10020,7 +9378,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -10036,7 +9394,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -10052,7 +9410,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -10068,7 +9426,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
@@ -10084,7 +9442,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
@@ -10175,7 +9533,7 @@
       <c r="C2" s="1">
         <v>511</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -10211,7 +9569,7 @@
       <c r="C3" s="1">
         <v>391</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
@@ -10245,7 +9603,7 @@
       <c r="C4" s="1">
         <v>519</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -10279,7 +9637,7 @@
       <c r="C5" s="1">
         <v>334</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
@@ -10313,7 +9671,7 @@
       <c r="C6" s="1">
         <v>546</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -10347,7 +9705,7 @@
       <c r="C7" s="1">
         <v>2001</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
@@ -10416,7 +9774,7 @@
       <c r="C11" s="1">
         <v>511</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -10452,7 +9810,7 @@
       <c r="C12" s="1">
         <v>391</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -10486,7 +9844,7 @@
       <c r="C13" s="1">
         <v>519</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
@@ -10520,7 +9878,7 @@
       <c r="C14" s="1">
         <v>334</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
@@ -10554,7 +9912,7 @@
       <c r="C15" s="1">
         <v>546</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
@@ -10588,7 +9946,7 @@
       <c r="C16" s="1">
         <v>2001</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
@@ -10696,10 +10054,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="6">
         <v>24000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -10711,7 +10069,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -10732,8 +10090,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -10743,7 +10101,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="2">
         <v>0.63270000000000004</v>
       </c>
@@ -10755,8 +10113,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -10766,7 +10124,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="2">
         <v>0.90369999999999995</v>
       </c>
@@ -10778,8 +10136,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -10789,7 +10147,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="2">
         <v>0.73629999999999995</v>
       </c>
@@ -10801,8 +10159,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -10812,7 +10170,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="2">
         <v>0.60750000000000004</v>
       </c>
@@ -10824,8 +10182,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -10835,7 +10193,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="2">
         <v>0.66490000000000005</v>
       </c>
@@ -10876,10 +10234,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="6">
         <v>24000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -10891,7 +10249,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -10905,8 +10263,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -10916,7 +10274,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2">
         <v>0.66100000000000003</v>
       </c>
@@ -10928,8 +10286,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -10939,7 +10297,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2">
         <v>0.91090000000000004</v>
       </c>
@@ -10951,8 +10309,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -10962,7 +10320,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="2">
         <v>0.75739999999999996</v>
       </c>
@@ -10974,8 +10332,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -10985,7 +10343,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="2">
         <v>0.68489999999999995</v>
       </c>
@@ -10997,8 +10355,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -11008,7 +10366,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="2">
         <v>0.67830000000000001</v>
       </c>
@@ -11049,10 +10407,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="6">
         <v>24000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -11064,7 +10422,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -11078,8 +10436,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -11089,7 +10447,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="2">
         <v>0.60199999999999998</v>
       </c>
@@ -11101,8 +10459,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -11112,7 +10470,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="2">
         <v>0.8024</v>
       </c>
@@ -11124,8 +10482,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -11135,7 +10493,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="2">
         <v>0.72440000000000004</v>
       </c>
@@ -11147,8 +10505,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -11158,7 +10516,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="2">
         <v>0.56640000000000001</v>
       </c>
@@ -11170,8 +10528,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -11181,7 +10539,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="2">
         <v>0.51</v>
       </c>
@@ -11222,10 +10580,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="6">
         <v>24000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -11237,7 +10595,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -11251,8 +10609,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -11262,7 +10620,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="2">
         <v>0.59130000000000005</v>
       </c>
@@ -11274,8 +10632,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -11285,7 +10643,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="2">
         <v>0.79769999999999996</v>
       </c>
@@ -11297,8 +10655,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -11308,7 +10666,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="2">
         <v>0.7399</v>
       </c>
@@ -11320,8 +10678,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -11331,7 +10689,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="2">
         <v>0.55920000000000003</v>
       </c>
@@ -11343,8 +10701,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -11354,7 +10712,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="2">
         <v>0.49370000000000003</v>
       </c>
@@ -11441,10 +10799,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="6">
         <v>20000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -11456,7 +10814,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -11477,8 +10835,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -11488,7 +10846,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="2">
         <v>0.63990000000000002</v>
       </c>
@@ -11500,8 +10858,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -11511,7 +10869,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="2">
         <v>0.89649999999999996</v>
       </c>
@@ -11523,8 +10881,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -11534,7 +10892,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="2">
         <v>0.75580000000000003</v>
       </c>
@@ -11546,8 +10904,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -11557,7 +10915,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="2">
         <v>0.64710000000000001</v>
       </c>
@@ -11569,8 +10927,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -11580,7 +10938,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="2">
         <v>0.6694</v>
       </c>
@@ -11621,10 +10979,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="6">
         <v>20000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -11636,7 +10994,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -11650,8 +11008,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -11661,7 +11019,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2">
         <v>0.64910000000000001</v>
       </c>
@@ -11673,8 +11031,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -11684,7 +11042,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2">
         <v>0.89170000000000005</v>
       </c>
@@ -11696,8 +11054,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -11707,7 +11065,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="2">
         <v>0.74299999999999999</v>
       </c>
@@ -11719,8 +11077,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -11730,7 +11088,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="2">
         <v>0.61409999999999998</v>
       </c>
@@ -11742,8 +11100,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -11753,7 +11111,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="2">
         <v>0.66080000000000005</v>
       </c>
@@ -11794,10 +11152,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="6">
         <v>20000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -11809,7 +11167,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -11823,8 +11181,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -11834,7 +11192,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="2">
         <v>0.56010000000000004</v>
       </c>
@@ -11846,8 +11204,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -11857,7 +11215,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="2">
         <v>0.85360000000000003</v>
       </c>
@@ -11869,8 +11227,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -11880,7 +11238,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="2">
         <v>0.71830000000000005</v>
       </c>
@@ -11892,8 +11250,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -11903,7 +11261,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="2">
         <v>0.54449999999999998</v>
       </c>
@@ -11915,8 +11273,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -11926,7 +11284,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="2">
         <v>0.50319999999999998</v>
       </c>
@@ -11967,10 +11325,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="6">
         <v>20000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -11982,7 +11340,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -11996,8 +11354,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -12007,7 +11365,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="2">
         <v>0.58289999999999997</v>
       </c>
@@ -12019,8 +11377,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -12030,7 +11388,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="2">
         <v>0.78259999999999996</v>
       </c>
@@ -12042,8 +11400,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -12053,7 +11411,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="2">
         <v>0.72809999999999997</v>
       </c>
@@ -12065,8 +11423,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -12076,7 +11434,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="2">
         <v>0.53449999999999998</v>
       </c>
@@ -12088,8 +11446,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -12099,7 +11457,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="2">
         <v>0.47499999999999998</v>
       </c>
@@ -12112,18 +11470,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="F32:F37"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="F12:F17"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="F32:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12186,10 +11544,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="6">
         <v>15000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -12201,7 +11559,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -12222,8 +11580,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -12233,7 +11591,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="2">
         <v>0.59650000000000003</v>
       </c>
@@ -12245,8 +11603,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -12256,7 +11614,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="2">
         <v>0.87680000000000002</v>
       </c>
@@ -12268,8 +11626,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -12279,7 +11637,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="2">
         <v>0.73309999999999997</v>
       </c>
@@ -12291,8 +11649,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -12302,7 +11660,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="2">
         <v>0.63929999999999998</v>
       </c>
@@ -12314,8 +11672,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -12325,7 +11683,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="2">
         <v>0.66849999999999998</v>
       </c>
@@ -12366,10 +11724,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="6">
         <v>15000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -12381,7 +11739,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -12395,8 +11753,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -12406,7 +11764,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2">
         <v>0.64139999999999997</v>
       </c>
@@ -12418,8 +11776,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -12429,7 +11787,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2">
         <v>0.88070000000000004</v>
       </c>
@@ -12441,8 +11799,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -12452,7 +11810,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="2">
         <v>0.73029999999999995</v>
       </c>
@@ -12464,8 +11822,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -12475,7 +11833,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="2">
         <v>0.60119999999999996</v>
       </c>
@@ -12487,8 +11845,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -12498,7 +11856,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="2">
         <v>0.64800000000000002</v>
       </c>
@@ -12539,10 +11897,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="6">
         <v>15000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -12554,7 +11912,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -12568,8 +11926,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -12579,7 +11937,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="2">
         <v>0.59019999999999995</v>
       </c>
@@ -12591,8 +11949,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -12602,7 +11960,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="2">
         <v>0.81289999999999996</v>
       </c>
@@ -12614,8 +11972,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -12625,7 +11983,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="2">
         <v>0.66200000000000003</v>
       </c>
@@ -12637,8 +11995,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -12648,7 +12006,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="2">
         <v>0.51139999999999997</v>
       </c>
@@ -12660,8 +12018,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -12671,7 +12029,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="2">
         <v>0.4647</v>
       </c>
@@ -12712,10 +12070,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="6">
         <v>15000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -12727,7 +12085,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -12741,8 +12099,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -12752,7 +12110,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="2">
         <v>0.55679999999999996</v>
       </c>
@@ -12764,8 +12122,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -12775,7 +12133,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="2">
         <v>0.80889999999999995</v>
       </c>
@@ -12787,8 +12145,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -12798,7 +12156,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="2">
         <v>0.68010000000000004</v>
       </c>
@@ -12810,8 +12168,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -12821,7 +12179,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="2">
         <v>0.51129999999999998</v>
       </c>
@@ -12833,8 +12191,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -12844,7 +12202,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="2">
         <v>0.46350000000000002</v>
       </c>
@@ -12857,18 +12215,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="F32:F37"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="F12:F17"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="F32:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12931,10 +12289,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="6">
         <v>10000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -12946,7 +12304,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -12967,8 +12325,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -12978,7 +12336,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="2">
         <v>0.60089999999999999</v>
       </c>
@@ -12990,8 +12348,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -13001,7 +12359,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="2">
         <v>0.90449999999999997</v>
       </c>
@@ -13013,8 +12371,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -13024,7 +12382,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="2">
         <v>0.72840000000000005</v>
       </c>
@@ -13036,8 +12394,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -13047,7 +12405,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="2">
         <v>0.55689999999999995</v>
       </c>
@@ -13059,8 +12417,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -13070,7 +12428,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="2">
         <v>0.65269999999999995</v>
       </c>
@@ -13111,10 +12469,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="6">
         <v>10000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -13126,7 +12484,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -13140,8 +12498,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -13151,7 +12509,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2">
         <v>0.63859999999999995</v>
       </c>
@@ -13163,8 +12521,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -13174,7 +12532,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2">
         <v>0.88580000000000003</v>
       </c>
@@ -13186,8 +12544,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -13197,7 +12555,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="2">
         <v>0.74929999999999997</v>
       </c>
@@ -13209,8 +12567,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -13220,7 +12578,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="2">
         <v>0.56789999999999996</v>
       </c>
@@ -13232,8 +12590,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -13243,7 +12601,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="2">
         <v>0.65390000000000004</v>
       </c>
@@ -13284,10 +12642,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="6">
         <v>10000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -13299,7 +12657,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -13313,8 +12671,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -13324,7 +12682,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="2">
         <v>0.59319999999999995</v>
       </c>
@@ -13336,8 +12694,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -13347,7 +12705,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="2">
         <v>0.86209999999999998</v>
       </c>
@@ -13359,8 +12717,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -13370,7 +12728,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="2">
         <v>0.68620000000000003</v>
       </c>
@@ -13382,8 +12740,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -13393,7 +12751,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="2">
         <v>0.50370000000000004</v>
       </c>
@@ -13405,8 +12763,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -13416,7 +12774,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="2">
         <v>0.46110000000000001</v>
       </c>
@@ -13457,10 +12815,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="6">
         <v>10000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -13472,7 +12830,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -13486,8 +12844,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -13497,7 +12855,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="2">
         <v>0.58240000000000003</v>
       </c>
@@ -13509,8 +12867,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -13520,7 +12878,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="2">
         <v>0.80710000000000004</v>
       </c>
@@ -13532,8 +12890,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -13543,7 +12901,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="2">
         <v>0.64339999999999997</v>
       </c>
@@ -13555,8 +12913,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -13566,7 +12924,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="2">
         <v>0.44330000000000003</v>
       </c>
@@ -13578,8 +12936,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -13589,7 +12947,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="2">
         <v>0.44169999999999998</v>
       </c>
@@ -13602,18 +12960,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="F32:F37"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="F12:F17"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="F32:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13676,10 +13034,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="6">
         <v>5000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -13691,7 +13049,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -13712,8 +13070,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -13723,7 +13081,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="2">
         <v>0.61670000000000003</v>
       </c>
@@ -13735,8 +13093,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -13746,7 +13104,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="2">
         <v>0.87129999999999996</v>
       </c>
@@ -13758,8 +13116,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -13769,7 +13127,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="2">
         <v>0.67339000000000004</v>
       </c>
@@ -13781,8 +13139,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -13792,7 +13150,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="2">
         <v>0.55420000000000003</v>
       </c>
@@ -13804,8 +13162,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -13815,7 +13173,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="2">
         <v>0.6401</v>
       </c>
@@ -13856,10 +13214,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="6">
         <v>5000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -13871,7 +13229,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -13885,8 +13243,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -13896,7 +13254,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2">
         <v>0.62829999999999997</v>
       </c>
@@ -13908,8 +13266,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -13919,7 +13277,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2">
         <v>0.88570000000000004</v>
       </c>
@@ -13931,8 +13289,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -13942,7 +13300,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="2">
         <v>0.67269999999999996</v>
       </c>
@@ -13954,8 +13312,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -13965,7 +13323,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="2">
         <v>0.59040000000000004</v>
       </c>
@@ -13977,8 +13335,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -13988,7 +13346,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="2">
         <v>0.67049999999999998</v>
       </c>
@@ -14029,10 +13387,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="6">
         <v>5000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -14044,7 +13402,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -14058,8 +13416,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -14069,7 +13427,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="2">
         <v>0.59250000000000003</v>
       </c>
@@ -14081,8 +13439,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -14092,7 +13450,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="2">
         <v>0.84440000000000004</v>
       </c>
@@ -14104,8 +13462,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -14115,7 +13473,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="2">
         <v>0.63400000000000001</v>
       </c>
@@ -14127,8 +13485,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -14138,7 +13496,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="2">
         <v>0.44800000000000001</v>
       </c>
@@ -14150,8 +13508,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -14161,7 +13519,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="2">
         <v>0.43380000000000002</v>
       </c>
@@ -14202,10 +13560,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="6">
         <v>5000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -14217,7 +13575,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -14231,8 +13589,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -14242,7 +13600,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="2">
         <v>0.58050000000000002</v>
       </c>
@@ -14254,8 +13612,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -14265,7 +13623,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="2">
         <v>0.77549999999999997</v>
       </c>
@@ -14277,8 +13635,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -14288,7 +13646,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="2">
         <v>0.62970000000000004</v>
       </c>
@@ -14300,8 +13658,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -14311,7 +13669,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="2">
         <v>0.4284</v>
       </c>
@@ -14323,8 +13681,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -14334,7 +13692,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="2">
         <v>0.42049999999999998</v>
       </c>
@@ -14347,18 +13705,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="F32:F37"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="F12:F17"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="F32:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -14421,10 +13779,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="6">
         <v>3000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -14436,7 +13794,7 @@
       <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -14457,8 +13815,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -14468,7 +13826,7 @@
       <c r="E3" s="1">
         <v>38</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="2">
         <v>0.61570000000000003</v>
       </c>
@@ -14480,8 +13838,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -14491,7 +13849,7 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="2">
         <v>0.87770000000000004</v>
       </c>
@@ -14503,8 +13861,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -14514,7 +13872,7 @@
       <c r="E5" s="1">
         <v>31</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="2">
         <v>0.64159999999999995</v>
       </c>
@@ -14526,8 +13884,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
@@ -14537,7 +13895,7 @@
       <c r="E6" s="1">
         <v>58</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="2">
         <v>0.4788</v>
       </c>
@@ -14549,8 +13907,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -14560,7 +13918,7 @@
       <c r="E7" s="1">
         <v>347</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="2">
         <v>0.66810000000000003</v>
       </c>
@@ -14601,10 +13959,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="6">
         <v>3000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -14616,7 +13974,7 @@
       <c r="E12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -14630,8 +13988,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -14641,7 +13999,7 @@
       <c r="E13" s="1">
         <v>38</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2">
         <v>0.59589999999999999</v>
       </c>
@@ -14653,8 +14011,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -14664,7 +14022,7 @@
       <c r="E14" s="1">
         <v>53</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2">
         <v>0.86939999999999995</v>
       </c>
@@ -14676,8 +14034,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -14687,7 +14045,7 @@
       <c r="E15" s="1">
         <v>31</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="2">
         <v>0.62439999999999996</v>
       </c>
@@ -14699,8 +14057,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -14710,7 +14068,7 @@
       <c r="E16" s="1">
         <v>58</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="2">
         <v>0.56369999999999998</v>
       </c>
@@ -14722,8 +14080,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
@@ -14733,7 +14091,7 @@
       <c r="E17" s="1">
         <v>347</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="2">
         <v>0.65139999999999998</v>
       </c>
@@ -14774,10 +14132,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="6">
         <v>3000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -14789,7 +14147,7 @@
       <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="2">
@@ -14803,8 +14161,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -14814,7 +14172,7 @@
       <c r="E23" s="1">
         <v>38</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="2">
         <v>0.55220000000000002</v>
       </c>
@@ -14826,8 +14184,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
@@ -14837,7 +14195,7 @@
       <c r="E24" s="1">
         <v>53</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="2">
         <v>0.79910000000000003</v>
       </c>
@@ -14849,8 +14207,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
@@ -14860,7 +14218,7 @@
       <c r="E25" s="1">
         <v>31</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="2">
         <v>0.6119</v>
       </c>
@@ -14872,8 +14230,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -14883,7 +14241,7 @@
       <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="2">
         <v>0.39679999999999999</v>
       </c>
@@ -14895,8 +14253,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -14906,7 +14264,7 @@
       <c r="E27" s="1">
         <v>347</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="2">
         <v>0.4385</v>
       </c>
@@ -14947,10 +14305,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="6">
         <v>5000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -14962,7 +14320,7 @@
       <c r="E32" s="1">
         <v>44</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2">
@@ -14976,8 +14334,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -14987,7 +14345,7 @@
       <c r="E33" s="1">
         <v>38</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="2">
         <v>0.5595</v>
       </c>
@@ -14999,8 +14357,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
@@ -15010,7 +14368,7 @@
       <c r="E34" s="1">
         <v>53</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="2">
         <v>0.76919999999999999</v>
       </c>
@@ -15022,8 +14380,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -15033,7 +14391,7 @@
       <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="2">
         <v>0.60399999999999998</v>
       </c>
@@ -15045,8 +14403,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
@@ -15056,7 +14414,7 @@
       <c r="E36" s="1">
         <v>58</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="2">
         <v>0.38529999999999998</v>
       </c>
@@ -15068,8 +14426,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
@@ -15079,7 +14437,7 @@
       <c r="E37" s="1">
         <v>347</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="2">
         <v>0.432</v>
       </c>
@@ -15092,18 +14450,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="F32:F37"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="F12:F17"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="F32:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
